--- a/downloads/sephora_data.xlsx
+++ b/downloads/sephora_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="727">
   <si>
     <t>product_name</t>
   </si>
@@ -37,52 +37,52 @@
     <t>Almost Lipstick</t>
   </si>
   <si>
-    <t>Moisture Surge™ 100H Auto-Replenishing Hydrator Moisturizer</t>
+    <t>High Impact Mascara</t>
+  </si>
+  <si>
+    <t>Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Balm Makeup Remover</t>
   </si>
   <si>
     <t>Dramatically Different Moisturizing Lotion+</t>
   </si>
   <si>
-    <t>Take The Day Off Cleansing Balm Makeup Remover</t>
-  </si>
-  <si>
-    <t>Pop Plush™ Creamy Lip Gloss</t>
+    <t>Quickliner For Eyes Intense Eyeliner</t>
+  </si>
+  <si>
+    <t>Pop Plush Creamy Lip Gloss</t>
   </si>
   <si>
     <t>Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
   </si>
   <si>
-    <t>High Impact Mascara</t>
-  </si>
-  <si>
-    <t>All About Clean™ Liquid Facial Soap</t>
-  </si>
-  <si>
     <t>Cheek Pop Blush</t>
   </si>
   <si>
+    <t>Stay-Matte Sheer Pressed Powder</t>
+  </si>
+  <si>
+    <t>Even Better Makeup Broad Spectrum SPF 15 Foundation</t>
+  </si>
+  <si>
+    <t>All About Clean Liquid Facial Soap</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>All About Shadow 8-Pan Palette</t>
+  </si>
+  <si>
+    <t>All About Eyes Eye Cream with Vitamin C</t>
+  </si>
+  <si>
     <t>Clarifying Lotion 2</t>
   </si>
   <si>
-    <t>Even Better™ Makeup Broad Spectrum SPF 15 Foundation</t>
-  </si>
-  <si>
-    <t>All About Eyes Eye Cream with Vitamin C</t>
-  </si>
-  <si>
-    <t>Even Better™ All-Over Concealer + Eraser</t>
-  </si>
-  <si>
-    <t>Quickliner™ For Eyes Intense Eyeliner</t>
-  </si>
-  <si>
-    <t>Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>Stay-Matte Sheer Pressed Powder</t>
-  </si>
-  <si>
-    <t>All About Shadow 8-Pan Palette</t>
+    <t>Even Better All-Over Concealer + Eraser</t>
   </si>
   <si>
     <t>Lash Power Mascara Long-Wearing Formula</t>
@@ -91,301 +91,307 @@
     <t>Beyond Perfecting Foundation + Concealer</t>
   </si>
   <si>
+    <t>High Impact High-Fi Full Volume Mascara</t>
+  </si>
+  <si>
     <t>Clarifying Lotion 3</t>
   </si>
   <si>
+    <t>Take The Day Off Micellar Cleansing Towelettes for Face &amp; Eyes Makeup Remover</t>
+  </si>
+  <si>
+    <t>Acne Solutions Clarifying Lotion</t>
+  </si>
+  <si>
+    <t>Moisture Surge CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Moisture Surge Broad Spectrum Sunscreen SPF 28 Sheer Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Mini Take The Day Off Cleansing Balm Makeup Remover</t>
+  </si>
+  <si>
     <t>Rinse-Off Foaming Cleanser</t>
   </si>
   <si>
-    <t>Moisture Surge™ Sheertint Hydrator Broad Spectrum SPF 25 Tinted Moisturizer</t>
+    <t>Even Better Clinical Radical Dark Spot Corrector + Interrupter Serum</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
+    <t>Acne Solutions Clinical Clearing Gel</t>
   </si>
   <si>
     <t>Great Skin, Great Deal Set for Dry Combination Skin</t>
   </si>
   <si>
+    <t>Moisture Surge Sheertint Hydrator Broad Spectrum SPF 25 Tinted Moisturizer</t>
+  </si>
+  <si>
+    <t>All About Eyes Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
+    <t>Take The Day Off Cleansing Oil Makeup Remover</t>
+  </si>
+  <si>
+    <t>Exfoliating Face Scrub</t>
+  </si>
+  <si>
+    <t>High Impact&amp;trade; Mascara Mini</t>
+  </si>
+  <si>
+    <t>Quickliner&amp;trade; For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair&amp;trade; Wrinkle Correcting Serum</t>
+  </si>
+  <si>
     <t>High Impact Waterproof Mascara</t>
   </si>
   <si>
-    <t>Take The Day Off Micellar Cleansing Towelettes for Face &amp; Eyes Makeup Remover</t>
-  </si>
-  <si>
-    <t>All About Eyes Serum De-Puffing Eye Massage</t>
+    <t>Moisture Megastars Hydrating Skincare Set</t>
+  </si>
+  <si>
+    <t>Mini Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>Moisture Surge Intense 72H Lipid-Replenishing Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Mini Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Blended Face Powder</t>
   </si>
   <si>
     <t>All About Eyes Rich Eye Cream with Hyaluronic Acid</t>
   </si>
   <si>
+    <t>Lash Building Primer</t>
+  </si>
+  <si>
+    <t>All About Shadow&amp;trade; Single Eye Shadow</t>
+  </si>
+  <si>
+    <t>Mini Dramatically Different Moisturizing Lotion+</t>
+  </si>
+  <si>
     <t>Dramatically Different Hydrating Jelly</t>
   </si>
   <si>
-    <t>Moisture Surge CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>High Impact High-Fi™ Full Volume Mascara</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Broad Spectrum Sunscreen SPF 28 Sheer Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Serum Foundation Broad Spectrum SPF 25</t>
-  </si>
-  <si>
-    <t>Blended Face Powder</t>
-  </si>
-  <si>
-    <t>Quickliner&amp;trade; For Eyes Eyeliner</t>
-  </si>
-  <si>
-    <t>Exfoliating Face Scrub</t>
-  </si>
-  <si>
-    <t>Take The Day Off Cleansing Oil Makeup Remover</t>
-  </si>
-  <si>
-    <t>Lash Building Primer</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Clarifying Lotion</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair™ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>High Impact&amp;trade; Mascara Mini</t>
-  </si>
-  <si>
-    <t>Mini Take The Day Off Cleansing Balm Makeup Remover</t>
-  </si>
-  <si>
-    <t>Mini Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>Moisture Megastars Hydrating Skincare Set</t>
-  </si>
-  <si>
-    <t>Mini Dramatically Different Moisturizing Lotion+</t>
-  </si>
-  <si>
-    <t>Mini Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
-  </si>
-  <si>
-    <t>Moisture Surge™ Overnight Face Mask</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair&amp;trade; Wrinkle Correcting Serum</t>
-  </si>
-  <si>
-    <t>All About Shadow&amp;trade; Single Eye Shadow</t>
+    <t>Mini Moisture Surge Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>Great Skin, Great Deal Set for Combination Oily Skin</t>
+  </si>
+  <si>
+    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
   </si>
   <si>
     <t>Smart Clinical Repair&amp;trade; Wrinkle Correcting Eye Cream</t>
   </si>
   <si>
-    <t>Moisture Surge™ Intense 72H Lipid-Replenishing Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surge™ 100H Auto-Replenishing Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surge™ Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Great Skin, Great Deal Set for Combination Oily Skin</t>
+    <t>Acne Solutions All-Over Clearing Treatment Oil-Free</t>
+  </si>
+  <si>
+    <t>High Impact Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Mini Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>High Impact Extreme Volume Mascara</t>
+  </si>
+  <si>
+    <t>Moisture Surge Overnight Face Mask</t>
+  </si>
+  <si>
+    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
+  </si>
+  <si>
+    <t>Acne Solutions Cleansing Gel</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Face Scrub</t>
+  </si>
+  <si>
+    <t>Take The Day Off Facial Cleansing Mousse</t>
   </si>
   <si>
     <t>Moisture Surge Hydrating Supercharged Concentrate</t>
   </si>
   <si>
-    <t>Even Better Clinical™ Radical Dark Spot Corrector + Interrupter Serum</t>
-  </si>
-  <si>
-    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair™ Wrinkle Correcting Rich Cream</t>
+    <t>All About Clean Foaming Facial Soap</t>
+  </si>
+  <si>
+    <t>All About Clean&amp;trade; 2-in-1 Cleansing + Exfoliating Jelly</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 1</t>
+  </si>
+  <si>
+    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Mini Acne Solutions Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>Mineral Face Sunscreen Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Face Sunscreen Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Acne Solutions Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>Clarifying Lotion 4</t>
+  </si>
+  <si>
+    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
+  </si>
+  <si>
+    <t>Superdefense City Block Face Sunscreen SPF 50</t>
+  </si>
+  <si>
+    <t>Repairwear Anti-Gravity Eye Cream</t>
+  </si>
+  <si>
+    <t>Redness Solutions Soothing Cleanser</t>
+  </si>
+  <si>
+    <t>Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Clinique For Men Anti-Age Moisturizer</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Even Better Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Mini Take The Day Off Charcoal Cleansing Balm Makeup Remover</t>
   </si>
   <si>
     <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum Sunscreen SPF 25 Primer</t>
   </si>
   <si>
-    <t>Face Sunscreen Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>All About Clean&amp;trade; 2-in-1 Cleansing + Exfoliating Jelly</t>
-  </si>
-  <si>
-    <t>High Impact™ Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>Superdefense City Block Face Sunscreen SPF 50</t>
-  </si>
-  <si>
-    <t>High Impact Extreme Volume Mascara</t>
+    <t>True Bronze Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Pop Splash&amp;trade; Lip Gloss</t>
+  </si>
+  <si>
+    <t>Even Better Eyes Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>All About Clean 2-in-1 Charcoal Face Mask + Scrub</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Cream</t>
+  </si>
+  <si>
+    <t>Charcoal Face Wash</t>
+  </si>
+  <si>
+    <t>Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer&amp;trade; Anti-Fatigue Depuffing Eye Gel</t>
   </si>
   <si>
     <t>Moisturizing Lotion</t>
   </si>
   <si>
-    <t>Clarifying Lotion 1</t>
-  </si>
-  <si>
-    <t>Acne Solutions All-Over Clearing Treatment Oil-Free</t>
-  </si>
-  <si>
-    <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
-  </si>
-  <si>
-    <t>True Bronze Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>All About Clean™ Foaming Facial Soap</t>
-  </si>
-  <si>
-    <t>Take The Day Off™ Facial Cleansing Mousse</t>
-  </si>
-  <si>
-    <t>Mineral Face Sunscreen Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Mini Take The Day Off™ Charcoal Cleansing Balm Makeup Remover</t>
-  </si>
-  <si>
-    <t>Clarifying Lotion 4</t>
-  </si>
-  <si>
-    <t>Charcoal Face Wash</t>
-  </si>
-  <si>
-    <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
-  </si>
-  <si>
-    <t>Even Better Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>Redness Solutions Instant Relief Mineral Pressed Powder</t>
-  </si>
-  <si>
-    <t>Redness Solutions Soothing Cleanser</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Even Better Eyes Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>Acne Solutions Acne + Line Correcting Serum</t>
-  </si>
-  <si>
     <t>Repairwear Laser Focus Wrinkle Correcting Eye Cream</t>
   </si>
   <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+    <t>Oil Control Face Wash</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
   </si>
   <si>
     <t>Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
   </si>
   <si>
-    <t>Dramatically Different Moisturizing Cream</t>
-  </si>
-  <si>
-    <t>Acne Solutions™ Cleansing Gel</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Anti-Age Moisturizer</t>
+    <t>Smart Clinical Repair Wrinkle Correcting Rich Cream</t>
+  </si>
+  <si>
+    <t>Clinique Pop Liquid&amp;trade; Matte Lip Colour + Primer Lipstick</t>
+  </si>
+  <si>
+    <t>Acne Solutions Oil-Control Cleansing Mask</t>
   </si>
   <si>
     <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
   </si>
   <si>
-    <t>Acne Solutions™ Oil-Control Cleansing Mask</t>
-  </si>
-  <si>
-    <t>Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Pop Splash&amp;trade; Lip Gloss</t>
-  </si>
-  <si>
-    <t>All About Clean™ 2-in-1 Charcoal Face Mask + Scrub</t>
-  </si>
-  <si>
-    <t>Even Better Clinical™ Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer&amp;trade; Anti-Fatigue Depuffing Eye Gel</t>
-  </si>
-  <si>
-    <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Face Scrub</t>
-  </si>
-  <si>
-    <t>Repairwear™ Anti-Gravity Eye Cream</t>
-  </si>
-  <si>
-    <t>Oil Control Face Wash</t>
-  </si>
-  <si>
-    <t>Clinique Pop Liquid&amp;trade; Matte Lip Colour + Primer Lipstick</t>
+    <t>Take The Day Off Charcoal Cleansing Balm Makeup Remover</t>
+  </si>
+  <si>
+    <t>Aloe Shave Gel</t>
+  </si>
+  <si>
+    <t>Sparkle Skin Body Exfoliator</t>
+  </si>
+  <si>
+    <t>Clarifying Do-Over Peel</t>
+  </si>
+  <si>
+    <t>Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
   </si>
   <si>
     <t>Face Scrub</t>
   </si>
   <si>
-    <t>Sparkle Skin™ Body Exfoliator</t>
-  </si>
-  <si>
-    <t>Take The Day Off™ Charcoal Cleansing Balm Makeup Remover</t>
+    <t>Clinique Smart Clinical MD Multi-Dimensional Age Transformer Duo Resculpt + Revolumize</t>
+  </si>
+  <si>
+    <t>Deep Comfort Body Butter</t>
+  </si>
+  <si>
+    <t>Mini Smart Clinical Repair Wrinkle Correcting Cream</t>
   </si>
   <si>
     <t>Post-Shave Soother</t>
   </si>
   <si>
-    <t>Clarifying Do-Over Peel</t>
-  </si>
-  <si>
-    <t>Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
-  </si>
-  <si>
-    <t>Clinique For Men™ Oil-Free Moisturizer</t>
-  </si>
-  <si>
     <t>Clinique For Men&amp;trade; Anti-Age Eye Cream</t>
   </si>
   <si>
-    <t>Mini Acne Solutions™ Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Deep Comfort Body Butter</t>
-  </si>
-  <si>
-    <t>Broad Spectrum SPF 21 Moisturizer</t>
-  </si>
-  <si>
-    <t>Mini Smart Clinical Repair™ Wrinkle Correcting Cream</t>
-  </si>
-  <si>
-    <t>Clinique Smart Clinical™ MD Multi-Dimensional Age Transformer Duo Resculpt + Revolumize</t>
+    <t>Clinique For Men Oil-Free Moisturizer</t>
   </si>
   <si>
     <t>Quickliner&amp;trade; For Lips Intense Lip Liner</t>
   </si>
   <si>
+    <t>Repairwear&amp;trade; Intensive Lip Treatment</t>
+  </si>
+  <si>
+    <t>Beyond Perfecting Super Concealer Camouflage + 24-Hour Wear</t>
+  </si>
+  <si>
     <t>Even Better Glow&amp;trade; Light Reflecting Makeup Broad Spectrum SPF 15 Foundation</t>
   </si>
   <si>
-    <t>Repairwear&amp;trade; Intensive Lip Treatment</t>
-  </si>
-  <si>
-    <t>Beyond Perfecting Super Concealer Camouflage + 24-Hour Wear</t>
+    <t>Turnaround Accelerated Renewal Serum</t>
+  </si>
+  <si>
+    <t>Acne Solutions Cleansing Foam</t>
   </si>
   <si>
     <t>Pep-Start Daily UV Protector Face Sunscreen SPF 50</t>
@@ -394,346 +400,358 @@
     <t>Mini Acne Solutions&amp;trade; Cleansing Foam</t>
   </si>
   <si>
-    <t>4.396</t>
+    <t>Mini High Impact High-Fi Full Volume Mascara</t>
+  </si>
+  <si>
+    <t>Superprimer Face Primer - Universal Face Primer</t>
+  </si>
+  <si>
+    <t>4.395</t>
+  </si>
+  <si>
+    <t>4.2842</t>
   </si>
   <si>
     <t>4.2409</t>
   </si>
   <si>
-    <t>3.9177</t>
-  </si>
-  <si>
     <t>4.5132</t>
   </si>
   <si>
-    <t>4.2874</t>
+    <t>3.9187</t>
+  </si>
+  <si>
+    <t>3.8518</t>
+  </si>
+  <si>
+    <t>4.2867</t>
   </si>
   <si>
     <t>4.5015</t>
   </si>
   <si>
-    <t>4.2842</t>
+    <t>4.5036</t>
+  </si>
+  <si>
+    <t>4.3343</t>
+  </si>
+  <si>
+    <t>4.1852</t>
   </si>
   <si>
     <t>4.3684</t>
   </si>
   <si>
-    <t>4.5032</t>
+    <t>4.4302</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.07</t>
   </si>
   <si>
     <t>4.3667</t>
   </si>
   <si>
-    <t>4.1852</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
     <t>4.2981</t>
   </si>
   <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>4.3343</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.3172</t>
+    <t>4.3178</t>
   </si>
   <si>
     <t>3.7504</t>
   </si>
   <si>
-    <t>4.3097</t>
+    <t>4.3712</t>
+  </si>
+  <si>
+    <t>4.3104</t>
+  </si>
+  <si>
+    <t>3.8922</t>
+  </si>
+  <si>
+    <t>4.3959</t>
+  </si>
+  <si>
+    <t>3.762</t>
+  </si>
+  <si>
+    <t>4.3557</t>
   </si>
   <si>
     <t>4.488</t>
   </si>
   <si>
+    <t>3.5842</t>
+  </si>
+  <si>
+    <t>3.5902</t>
+  </si>
+  <si>
+    <t>4.2245</t>
+  </si>
+  <si>
+    <t>4.2124</t>
+  </si>
+  <si>
     <t>3.7283</t>
   </si>
   <si>
-    <t>4.2124</t>
+    <t>3.7662</t>
+  </si>
+  <si>
+    <t>4.3122</t>
+  </si>
+  <si>
+    <t>4.6092</t>
+  </si>
+  <si>
+    <t>4.037</t>
+  </si>
+  <si>
+    <t>4.2566</t>
+  </si>
+  <si>
+    <t>4.1957</t>
   </si>
   <si>
     <t>3.9487</t>
   </si>
   <si>
-    <t>3.9007</t>
-  </si>
-  <si>
-    <t>3.7662</t>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.4301</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>4.0588</t>
+  </si>
+  <si>
+    <t>4.1785</t>
+  </si>
+  <si>
+    <t>4.3532</t>
   </si>
   <si>
     <t>4.1451</t>
   </si>
   <si>
+    <t>4.2806</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>3.8825</t>
   </si>
   <si>
-    <t>3.762</t>
-  </si>
-  <si>
-    <t>4.3691</t>
-  </si>
-  <si>
-    <t>4.2238</t>
-  </si>
-  <si>
-    <t>4.3557</t>
-  </si>
-  <si>
-    <t>3.5824</t>
-  </si>
-  <si>
-    <t>4.3585</t>
-  </si>
-  <si>
-    <t>4.2566</t>
-  </si>
-  <si>
-    <t>4.6106</t>
-  </si>
-  <si>
-    <t>4.3122</t>
-  </si>
-  <si>
-    <t>4.2806</t>
-  </si>
-  <si>
-    <t>4.3953</t>
-  </si>
-  <si>
-    <t>4.1785</t>
-  </si>
-  <si>
-    <t>4.037</t>
-  </si>
-  <si>
-    <t>4.4298</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4.0612</t>
+    <t>4.6667</t>
+  </si>
+  <si>
+    <t>4.3222</t>
+  </si>
+  <si>
+    <t>3.9983</t>
+  </si>
+  <si>
+    <t>4.2396</t>
+  </si>
+  <si>
+    <t>4.0194</t>
+  </si>
+  <si>
+    <t>3.7907</t>
+  </si>
+  <si>
+    <t>4.5311</t>
+  </si>
+  <si>
+    <t>4.1408</t>
+  </si>
+  <si>
+    <t>3.6217</t>
   </si>
   <si>
     <t>4.4752</t>
   </si>
   <si>
-    <t>4.1957</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>4.2396</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>4.1408</t>
-  </si>
-  <si>
-    <t>4.6667</t>
-  </si>
-  <si>
-    <t>4.3222</t>
+    <t>3.3014</t>
+  </si>
+  <si>
+    <t>3.8113</t>
+  </si>
+  <si>
+    <t>4.1235</t>
+  </si>
+  <si>
+    <t>4.4826</t>
   </si>
   <si>
     <t>4.0275</t>
   </si>
   <si>
-    <t>3.5842</t>
-  </si>
-  <si>
-    <t>4.5306</t>
+    <t>4.075</t>
+  </si>
+  <si>
+    <t>4.6061</t>
+  </si>
+  <si>
+    <t>4.5198</t>
+  </si>
+  <si>
+    <t>3.0995</t>
+  </si>
+  <si>
+    <t>3.413</t>
+  </si>
+  <si>
+    <t>3.9449</t>
+  </si>
+  <si>
+    <t>4.1111</t>
+  </si>
+  <si>
+    <t>4.3593</t>
+  </si>
+  <si>
+    <t>3.4636</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>4.1585</t>
+  </si>
+  <si>
+    <t>4.1696</t>
+  </si>
+  <si>
+    <t>4.5417</t>
+  </si>
+  <si>
+    <t>4.5455</t>
+  </si>
+  <si>
+    <t>3.8585</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.1706</t>
+  </si>
+  <si>
+    <t>4.1164</t>
+  </si>
+  <si>
+    <t>4.5257</t>
+  </si>
+  <si>
+    <t>4.3701</t>
+  </si>
+  <si>
+    <t>3.2428</t>
+  </si>
+  <si>
+    <t>4.0909</t>
+  </si>
+  <si>
+    <t>4.3939</t>
+  </si>
+  <si>
+    <t>4.7407</t>
+  </si>
+  <si>
+    <t>4.3529</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.475</t>
+  </si>
+  <si>
+    <t>3.8947</t>
+  </si>
+  <si>
+    <t>4.1667</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.4615</t>
+  </si>
+  <si>
+    <t>3.9438</t>
   </si>
   <si>
     <t>4.3158</t>
   </si>
   <si>
-    <t>4.1164</t>
-  </si>
-  <si>
-    <t>3.9449</t>
-  </si>
-  <si>
-    <t>4.6061</t>
-  </si>
-  <si>
-    <t>3.7907</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>3.6217</t>
-  </si>
-  <si>
-    <t>4.475</t>
-  </si>
-  <si>
-    <t>4.5198</t>
-  </si>
-  <si>
-    <t>4.0194</t>
-  </si>
-  <si>
-    <t>3.9983</t>
-  </si>
-  <si>
-    <t>4.5257</t>
-  </si>
-  <si>
-    <t>3.0995</t>
-  </si>
-  <si>
-    <t>4.075</t>
-  </si>
-  <si>
-    <t>4.4826</t>
-  </si>
-  <si>
-    <t>3.413</t>
-  </si>
-  <si>
-    <t>4.1799</t>
-  </si>
-  <si>
-    <t>4.3593</t>
-  </si>
-  <si>
-    <t>4.7407</t>
-  </si>
-  <si>
-    <t>3.3014</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.4636</t>
-  </si>
-  <si>
-    <t>4.1696</t>
-  </si>
-  <si>
-    <t>4.4615</t>
-  </si>
-  <si>
-    <t>3.2428</t>
-  </si>
-  <si>
-    <t>4.1111</t>
-  </si>
-  <si>
-    <t>3.8947</t>
-  </si>
-  <si>
-    <t>3.8585</t>
-  </si>
-  <si>
-    <t>3.9438</t>
-  </si>
-  <si>
-    <t>4.3939</t>
-  </si>
-  <si>
-    <t>3.8113</t>
-  </si>
-  <si>
-    <t>4.5455</t>
+    <t>3.6774</t>
+  </si>
+  <si>
+    <t>4.4787</t>
   </si>
   <si>
     <t>3.6744</t>
   </si>
   <si>
-    <t>4.4787</t>
-  </si>
-  <si>
-    <t>4.5417</t>
-  </si>
-  <si>
-    <t>4.3701</t>
-  </si>
-  <si>
-    <t>4.0909</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.1235</t>
-  </si>
-  <si>
-    <t>4.1585</t>
-  </si>
-  <si>
-    <t>4.1667</t>
-  </si>
-  <si>
-    <t>3.6774</t>
+    <t>4.725</t>
+  </si>
+  <si>
+    <t>4.3562</t>
+  </si>
+  <si>
+    <t>3.2857</t>
+  </si>
+  <si>
+    <t>4.381</t>
   </si>
   <si>
     <t>4.7353</t>
   </si>
   <si>
-    <t>4.3562</t>
+    <t>2.8462</t>
+  </si>
+  <si>
+    <t>4.698</t>
+  </si>
+  <si>
+    <t>4.2778</t>
   </si>
   <si>
     <t>4.6458</t>
   </si>
   <si>
-    <t>3.2857</t>
-  </si>
-  <si>
-    <t>4.725</t>
-  </si>
-  <si>
-    <t>4.381</t>
+    <t>4.3333</t>
   </si>
   <si>
     <t>4.2083</t>
   </si>
   <si>
-    <t>4.3333</t>
-  </si>
-  <si>
-    <t>4.698</t>
-  </si>
-  <si>
-    <t>4.3529</t>
-  </si>
-  <si>
-    <t>4.2778</t>
-  </si>
-  <si>
-    <t>2.8462</t>
-  </si>
-  <si>
     <t>4.25</t>
   </si>
   <si>
+    <t>4.2754</t>
+  </si>
+  <si>
+    <t>4.0438</t>
+  </si>
+  <si>
     <t>4.3028</t>
   </si>
   <si>
-    <t>4.2754</t>
-  </si>
-  <si>
-    <t>4.0438</t>
+    <t>4.3237</t>
+  </si>
+  <si>
+    <t>4.1693</t>
   </si>
   <si>
     <t>4.2513</t>
@@ -742,304 +760,316 @@
     <t>4.125</t>
   </si>
   <si>
-    <t>4515</t>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>4.2674</t>
+  </si>
+  <si>
+    <t>4521</t>
+  </si>
+  <si>
+    <t>2808</t>
   </si>
   <si>
     <t>1868</t>
   </si>
   <si>
-    <t>2211</t>
-  </si>
-  <si>
     <t>4511</t>
   </si>
   <si>
-    <t>414</t>
+    <t>2213</t>
+  </si>
+  <si>
+    <t>641</t>
+  </si>
+  <si>
+    <t>415</t>
   </si>
   <si>
     <t>3256</t>
   </si>
   <si>
-    <t>2808</t>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1379</t>
+  </si>
+  <si>
+    <t>2635</t>
   </si>
   <si>
     <t>2237</t>
   </si>
   <si>
-    <t>1103</t>
+    <t>4042</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1656</t>
   </si>
   <si>
     <t>1399</t>
   </si>
   <si>
-    <t>2635</t>
-  </si>
-  <si>
-    <t>1656</t>
-  </si>
-  <si>
     <t>473</t>
   </si>
   <si>
-    <t>640</t>
-  </si>
-  <si>
-    <t>4040</t>
-  </si>
-  <si>
-    <t>1379</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2295</t>
+    <t>2297</t>
   </si>
   <si>
     <t>2608</t>
   </si>
   <si>
-    <t>930</t>
+    <t>299</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>1018</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>357</t>
   </si>
   <si>
     <t>836</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>92</t>
   </si>
   <si>
-    <t>193</t>
+    <t>911</t>
+  </si>
+  <si>
+    <t>583</t>
+  </si>
+  <si>
+    <t>1213</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1676</t>
   </si>
   <si>
     <t>429</t>
   </si>
   <si>
-    <t>675</t>
-  </si>
-  <si>
-    <t>911</t>
+    <t>4041</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>637</t>
   </si>
   <si>
     <t>1647</t>
   </si>
   <si>
+    <t>784</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>732</t>
   </si>
   <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>357</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>636</t>
-  </si>
-  <si>
-    <t>1543</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>784</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>4039</t>
-  </si>
-  <si>
-    <t>49</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>592</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>720</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>497</t>
   </si>
   <si>
     <t>484</t>
   </si>
   <si>
-    <t>1676</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>270</t>
+    <t>146</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>489</t>
   </si>
   <si>
     <t>255</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>818</t>
+    <t>120</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>160</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
-    <t>339</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>62</t>
   </si>
   <si>
     <t>282</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>62</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>170</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>245</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
     <t>142</t>
   </si>
   <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>251</t>
+    <t>139</t>
+  </si>
+  <si>
+    <t>1057</t>
   </si>
   <si>
     <t>378</t>
@@ -1048,16 +1078,25 @@
     <t>8</t>
   </si>
   <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/almost-lipstick-P122751?skuId=70680</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468351?skuId=2421725</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-P381030?skuId=1538354</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-intense-P305114?skuId=1394519</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-pop-plush-tm-creamy-lip-gloss-P501008?skuId=2601961</t>
@@ -1066,340 +1105,340 @@
     <t>https://www.sephora.com/product/take-the-day-off-makeup-remover-for-lids-lashes-lips-P122735?skuId=48074</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
+    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/liquid-facial-soap-P139000?skuId=899070</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clarifying-lotion-2-P122882?skuId=1295708</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/clinique-even-better-all-over-concealer-eraser-P461436?skuId=2365021</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-intense-P305114?skuId=1394519</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/lash-power-mascara-long-wearing-formula-P206900?skuId=2085231</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/beyond-perfecting-foundation-concealer-P393325?skuId=2166833</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clarifying-lotion-3-P122881?skuId=1295716</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/take-day-off-micellar-cleansing-towelettes-for-face-eyes-P406924?skuId=1802354</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisture-surge-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30-P378639?skuId=1509512</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-moisture-surge-tm-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P505507?skuId=2672970</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-take-day-off-cleansing-balm-mini-P453816?skuId=2039477</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/rinse-off-foaming-cleanser-P122762?skuId=47860</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-dry-combination-skin-P385632?skuId=1599414</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-moisture-surge-sheertint-hydrator-broad-spectrum-spf-25-P457692?skuId=2313708</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-dry-combination-skin-P385632?skuId=1599414</t>
+    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-the-day-off-cleansing-oil-P384821?skuId=1583426</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-high-impact-trade-mascara-mini-P479715?skuId=2554525</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-serum-P473267?skuId=2480705</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/high-impact-waterproof-mascara-P377219?skuId=1487180</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/take-day-off-micellar-cleansing-towelettes-for-face-eyes-P406924?skuId=1802354</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
+    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-mini-P425860?skuId=789735</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-intense-72h-lipid-replenishing-hydrator-P463613?skuId=2368694</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/take-the-day-off-to-go-P223704?skuId=1123116</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-cream-P500718?skuId=2608404</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/all-about-eyes-rich-P174502?skuId=971473</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-mini-P425857?skuId=1682343</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/dramatically-different-hydrating-jelly-P432241?skuId=2240331</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/moisture-surge-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30-P378639?skuId=1509512</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-surge-tm-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P505507?skuId=2672970</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-the-day-off-cleansing-oil-P384821?skuId=1583426</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-cream-P500718?skuId=2608404</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-high-impact-trade-mascara-mini-P479715?skuId=2554525</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-take-day-off-cleansing-balm-mini-P453816?skuId=2039477</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-mini-P425860?skuId=789735</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-mini-P425857?skuId=1682343</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/take-the-day-off-to-go-P223704?skuId=1123116</t>
+    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-combination-oily-skin-P385631?skuId=1599422</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-eye-cream-P479734?skuId=2531697</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-all-over-clearing-treatment-oil-free-P188306?skuId=1027465</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468818?skuId=2421683</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-serum-P473267?skuId=2480705</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-eye-cream-P479734?skuId=2531697</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-intense-72h-lipid-replenishing-hydrator-P463613?skuId=2368694</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468818?skuId=2421683</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-combination-oily-skin-P385631?skuId=1599422</t>
+    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blackhead-solutions-7-day-deep-pore-cleanse-scrub-P432242?skuId=2083780</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
+    <t>https://www.sephora.com/product/foaming-sonic-facial-soap-P392472?skuId=1663822</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-1-P122651?skuId=1295690</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-mini-P425858?skuId=1592856</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-50-mineral-sunscreen-fluid-for-face-P410101?skuId=1809383</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clarifying-lotion-4-P122876?skuId=1295724</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-superdefense-city-block-spf-50-daily-energy-face-protector-P456991?skuId=2313757</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/repairwear-anti-gravity-eye-lift-cream-P122727?skuId=502443</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-tonic-P122761?skuId=50765</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-take-day-off-charcoal-cleansing-balm-makeup-remover-P503737?skuId=2641876</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/marimekko-clinique-pop-splash-lip-gloss-P428662?skuId=2023471</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/charcoal-face-wash-P398713?skuId=1734649</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisturizing-lotion-P122809?skuId=1580794</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/oil-control-face-wash-P385256?skuId=1580778</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-rich-cream-P500771?skuId=2608396</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-superdefense-city-block-spf-50-daily-energy-face-protector-P456991?skuId=2313757</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisturizing-lotion-P122809?skuId=1580794</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-1-P122651?skuId=1295690</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-all-over-clearing-treatment-oil-free-P188306?skuId=1027465</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/foaming-sonic-facial-soap-P392472?skuId=1663822</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-50-mineral-sunscreen-fluid-for-face-P410101?skuId=1809383</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-take-day-off-charcoal-cleansing-balm-makeup-remover-P503737?skuId=2641876</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clarifying-lotion-4-P122876?skuId=1295724</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/charcoal-face-wash-P398713?skuId=1734649</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-instant-relief-mineral-pressed-powder-P277401?skuId=1295765</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-gel-P393501?skuId=1677137</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
+    <t>https://www.sephora.com/product/pop-liquid-matte-lip-colour-P411531?skuId=1860220</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-oil-control-cleansing-mask-P244701?skuId=1192921</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clarifying-lotion-1-0-twice-day-exfoliator-P409920?skuId=1829514</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/acne-solutions-oil-control-cleansing-mask-P244701?skuId=1192921</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/exfoliating-tonic-P122761?skuId=50765</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/marimekko-clinique-pop-splash-lip-gloss-P428662?skuId=2023471</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/blackhead-solutions-7-day-deep-pore-cleanse-scrub-P432242?skuId=2083780</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/repairwear-anti-gravity-eye-lift-cream-P122727?skuId=502443</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/oil-control-face-wash-P385256?skuId=1580778</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/pop-liquid-matte-lip-colour-P411531?skuId=1860220</t>
+    <t>https://www.sephora.com/product/clinique-take-day-off-charcoal-cleansing-balm-makeup-remover-P503747?skuId=2641884</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-clarifying-do-over-peel-P481668?skuId=2531739</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/fresh-pressed-renewing-powder-cleanser-P417323?skuId=1898782</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/face-scrub-P122665?skuId=50997</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-take-day-off-charcoal-cleansing-balm-makeup-remover-P503747?skuId=2641884</t>
+    <t>https://www.sephora.com/product/clinique-smart-clinical-md-multi-dimensional-age-transformer-duo-resculpt-revolumize-P448565?skuId=2240323</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/post-shave-soother-P122770?skuId=51052</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-clarifying-do-over-peel-P481668?skuId=2531739</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/fresh-pressed-renewing-powder-cleanser-P417323?skuId=1898782</t>
+    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/oil-control-mattifying-moisturizer-P122683?skuId=1580802</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-mini-P425858?skuId=1592856</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-smart-clinical-md-multi-dimensional-age-transformer-duo-resculpt-revolumize-P448565?skuId=2240323</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/quickliner-for-lips-intense-P400708?skuId=1719079</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/repairwear-intensive-lip-treatment-P122782?skuId=883306</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/beyond-perfecting-super-concealer-P421227?skuId=1948207</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/even-better-trade-glow-light-reflecting-makeup-broad-spectrum-spf-15-P422881?skuId=1953587</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/repairwear-intensive-lip-treatment-P122782?skuId=883306</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/beyond-perfecting-super-concealer-P421227?skuId=1948207</t>
+    <t>https://www.sephora.com/product/turnaround-revitalizing-serum-P302900?skuId=1689157</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/pep-start-daily-uv-protector-broad-spectrum-spf-50-P415773?skuId=1898725</t>
@@ -1408,16 +1447,28 @@
     <t>https://www.sephora.com/product/clinique-mini-acne-solutions-trade-cleansing-foam-P480289?skuId=2531747</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-mini-high-impact-high-fi-full-volume-mascara-P510414?skuId=2742872</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/superprimer-face-primer-universal-face-primer-P382504?skuId=1540202</t>
+  </si>
+  <si>
     <t>70680</t>
   </si>
   <si>
+    <t>711267</t>
+  </si>
+  <si>
     <t>2421725</t>
   </si>
   <si>
+    <t>886267</t>
+  </si>
+  <si>
     <t>1538354</t>
   </si>
   <si>
-    <t>886267</t>
+    <t>1394519</t>
   </si>
   <si>
     <t>2601961</t>
@@ -1426,340 +1477,340 @@
     <t>48074</t>
   </si>
   <si>
-    <t>711267</t>
+    <t>1674910</t>
+  </si>
+  <si>
+    <t>51573</t>
+  </si>
+  <si>
+    <t>2083871</t>
   </si>
   <si>
     <t>899070</t>
   </si>
   <si>
-    <t>1674910</t>
+    <t>789727</t>
+  </si>
+  <si>
+    <t>2702744</t>
+  </si>
+  <si>
+    <t>126581</t>
   </si>
   <si>
     <t>1295708</t>
   </si>
   <si>
-    <t>2083871</t>
-  </si>
-  <si>
-    <t>126581</t>
-  </si>
-  <si>
     <t>2365021</t>
   </si>
   <si>
-    <t>1394519</t>
-  </si>
-  <si>
-    <t>789727</t>
-  </si>
-  <si>
-    <t>51573</t>
-  </si>
-  <si>
-    <t>2702744</t>
-  </si>
-  <si>
     <t>2085231</t>
   </si>
   <si>
     <t>2166833</t>
   </si>
   <si>
+    <t>2677672</t>
+  </si>
+  <si>
     <t>1295716</t>
   </si>
   <si>
+    <t>1802354</t>
+  </si>
+  <si>
+    <t>1027473</t>
+  </si>
+  <si>
+    <t>1509512</t>
+  </si>
+  <si>
+    <t>2672970</t>
+  </si>
+  <si>
+    <t>2039477</t>
+  </si>
+  <si>
     <t>47860</t>
   </si>
   <si>
+    <t>2313401</t>
+  </si>
+  <si>
+    <t>2422566</t>
+  </si>
+  <si>
+    <t>1592831</t>
+  </si>
+  <si>
+    <t>1599414</t>
+  </si>
+  <si>
     <t>2313708</t>
   </si>
   <si>
-    <t>1599414</t>
+    <t>1234897</t>
+  </si>
+  <si>
+    <t>1583426</t>
+  </si>
+  <si>
+    <t>579490</t>
+  </si>
+  <si>
+    <t>2554525</t>
+  </si>
+  <si>
+    <t>557413</t>
+  </si>
+  <si>
+    <t>2480705</t>
   </si>
   <si>
     <t>1487180</t>
   </si>
   <si>
-    <t>1802354</t>
-  </si>
-  <si>
-    <t>1234897</t>
+    <t>2766384</t>
+  </si>
+  <si>
+    <t>789735</t>
+  </si>
+  <si>
+    <t>2368694</t>
+  </si>
+  <si>
+    <t>1123116</t>
+  </si>
+  <si>
+    <t>2608404</t>
+  </si>
+  <si>
+    <t>51532</t>
   </si>
   <si>
     <t>971473</t>
   </si>
   <si>
+    <t>741967</t>
+  </si>
+  <si>
+    <t>2717015</t>
+  </si>
+  <si>
+    <t>1682343</t>
+  </si>
+  <si>
     <t>2240331</t>
   </si>
   <si>
-    <t>1509512</t>
-  </si>
-  <si>
-    <t>2677672</t>
-  </si>
-  <si>
-    <t>1592831</t>
-  </si>
-  <si>
-    <t>2672970</t>
-  </si>
-  <si>
-    <t>2422566</t>
-  </si>
-  <si>
-    <t>51532</t>
-  </si>
-  <si>
-    <t>557413</t>
-  </si>
-  <si>
-    <t>579490</t>
-  </si>
-  <si>
-    <t>1583426</t>
-  </si>
-  <si>
-    <t>741967</t>
-  </si>
-  <si>
-    <t>1027473</t>
-  </si>
-  <si>
-    <t>2608404</t>
-  </si>
-  <si>
-    <t>2554525</t>
-  </si>
-  <si>
-    <t>2039477</t>
-  </si>
-  <si>
-    <t>789735</t>
-  </si>
-  <si>
-    <t>2766384</t>
-  </si>
-  <si>
-    <t>1682343</t>
-  </si>
-  <si>
-    <t>1123116</t>
+    <t>2694875</t>
+  </si>
+  <si>
+    <t>1599422</t>
+  </si>
+  <si>
+    <t>1066729</t>
+  </si>
+  <si>
+    <t>2531697</t>
+  </si>
+  <si>
+    <t>1027465</t>
+  </si>
+  <si>
+    <t>2515245</t>
+  </si>
+  <si>
+    <t>47936</t>
+  </si>
+  <si>
+    <t>2421683</t>
+  </si>
+  <si>
+    <t>1440486</t>
   </si>
   <si>
     <t>1484641</t>
   </si>
   <si>
-    <t>2480705</t>
-  </si>
-  <si>
-    <t>2717015</t>
-  </si>
-  <si>
-    <t>2531697</t>
-  </si>
-  <si>
-    <t>2368694</t>
-  </si>
-  <si>
-    <t>2421683</t>
-  </si>
-  <si>
-    <t>2694875</t>
-  </si>
-  <si>
-    <t>1599422</t>
+    <t>2171940</t>
+  </si>
+  <si>
+    <t>1677137</t>
+  </si>
+  <si>
+    <t>2083780</t>
+  </si>
+  <si>
+    <t>2734507</t>
   </si>
   <si>
     <t>1898790</t>
   </si>
   <si>
-    <t>2313401</t>
-  </si>
-  <si>
-    <t>47936</t>
+    <t>1663822</t>
+  </si>
+  <si>
+    <t>2421766</t>
+  </si>
+  <si>
+    <t>1295690</t>
+  </si>
+  <si>
+    <t>2083798</t>
+  </si>
+  <si>
+    <t>1592856</t>
+  </si>
+  <si>
+    <t>1809383</t>
+  </si>
+  <si>
+    <t>1151711</t>
+  </si>
+  <si>
+    <t>1802321</t>
+  </si>
+  <si>
+    <t>1295724</t>
+  </si>
+  <si>
+    <t>1295765</t>
+  </si>
+  <si>
+    <t>2313757</t>
+  </si>
+  <si>
+    <t>502443</t>
+  </si>
+  <si>
+    <t>1066711</t>
+  </si>
+  <si>
+    <t>50765</t>
+  </si>
+  <si>
+    <t>1596220</t>
+  </si>
+  <si>
+    <t>1417302</t>
+  </si>
+  <si>
+    <t>2664365</t>
+  </si>
+  <si>
+    <t>2641876</t>
+  </si>
+  <si>
+    <t>999565</t>
+  </si>
+  <si>
+    <t>847517</t>
+  </si>
+  <si>
+    <t>2023471</t>
+  </si>
+  <si>
+    <t>1438787</t>
+  </si>
+  <si>
+    <t>2421774</t>
+  </si>
+  <si>
+    <t>1717016</t>
+  </si>
+  <si>
+    <t>1734649</t>
+  </si>
+  <si>
+    <t>882506</t>
+  </si>
+  <si>
+    <t>2111904</t>
+  </si>
+  <si>
+    <t>1580794</t>
+  </si>
+  <si>
+    <t>1484625</t>
+  </si>
+  <si>
+    <t>1580778</t>
+  </si>
+  <si>
+    <t>2672988</t>
+  </si>
+  <si>
+    <t>2240349</t>
+  </si>
+  <si>
+    <t>1898774</t>
   </si>
   <si>
     <t>2608396</t>
   </si>
   <si>
-    <t>999565</t>
-  </si>
-  <si>
-    <t>1151711</t>
-  </si>
-  <si>
-    <t>2421766</t>
-  </si>
-  <si>
-    <t>2515245</t>
-  </si>
-  <si>
-    <t>2313757</t>
-  </si>
-  <si>
-    <t>1440486</t>
-  </si>
-  <si>
-    <t>1580794</t>
-  </si>
-  <si>
-    <t>1295690</t>
-  </si>
-  <si>
-    <t>1027465</t>
-  </si>
-  <si>
-    <t>1066729</t>
-  </si>
-  <si>
-    <t>847517</t>
-  </si>
-  <si>
-    <t>2083798</t>
-  </si>
-  <si>
-    <t>1663822</t>
-  </si>
-  <si>
-    <t>2734507</t>
-  </si>
-  <si>
-    <t>1809383</t>
-  </si>
-  <si>
-    <t>2641876</t>
-  </si>
-  <si>
-    <t>1295724</t>
-  </si>
-  <si>
-    <t>1734649</t>
-  </si>
-  <si>
-    <t>2171940</t>
-  </si>
-  <si>
-    <t>2664365</t>
-  </si>
-  <si>
-    <t>1295765</t>
-  </si>
-  <si>
-    <t>1066711</t>
-  </si>
-  <si>
-    <t>2240349</t>
-  </si>
-  <si>
-    <t>1438787</t>
-  </si>
-  <si>
-    <t>1802321</t>
-  </si>
-  <si>
-    <t>1484625</t>
-  </si>
-  <si>
-    <t>1417302</t>
-  </si>
-  <si>
-    <t>1898774</t>
-  </si>
-  <si>
-    <t>1717016</t>
-  </si>
-  <si>
-    <t>1677137</t>
-  </si>
-  <si>
-    <t>1596220</t>
+    <t>1860220</t>
+  </si>
+  <si>
+    <t>1192921</t>
   </si>
   <si>
     <t>1829514</t>
   </si>
   <si>
-    <t>1192921</t>
-  </si>
-  <si>
-    <t>50765</t>
-  </si>
-  <si>
-    <t>2023471</t>
-  </si>
-  <si>
-    <t>2421774</t>
-  </si>
-  <si>
-    <t>2672988</t>
-  </si>
-  <si>
-    <t>2111904</t>
-  </si>
-  <si>
-    <t>2083780</t>
-  </si>
-  <si>
-    <t>502443</t>
-  </si>
-  <si>
-    <t>1580778</t>
-  </si>
-  <si>
-    <t>1860220</t>
+    <t>2641884</t>
+  </si>
+  <si>
+    <t>1580810</t>
+  </si>
+  <si>
+    <t>410712</t>
+  </si>
+  <si>
+    <t>2531739</t>
+  </si>
+  <si>
+    <t>1898782</t>
   </si>
   <si>
     <t>50997</t>
   </si>
   <si>
-    <t>410712</t>
-  </si>
-  <si>
-    <t>2641884</t>
+    <t>2240323</t>
+  </si>
+  <si>
+    <t>637025</t>
+  </si>
+  <si>
+    <t>2608503</t>
   </si>
   <si>
     <t>51052</t>
   </si>
   <si>
-    <t>2531739</t>
-  </si>
-  <si>
-    <t>1580810</t>
-  </si>
-  <si>
-    <t>1898782</t>
+    <t>1202464</t>
   </si>
   <si>
     <t>1580802</t>
   </si>
   <si>
-    <t>1202464</t>
-  </si>
-  <si>
-    <t>1592856</t>
-  </si>
-  <si>
-    <t>637025</t>
-  </si>
-  <si>
-    <t>882506</t>
-  </si>
-  <si>
-    <t>2608503</t>
-  </si>
-  <si>
-    <t>2240323</t>
-  </si>
-  <si>
     <t>1719079</t>
   </si>
   <si>
+    <t>883306</t>
+  </si>
+  <si>
+    <t>1948207</t>
+  </si>
+  <si>
     <t>1953587</t>
   </si>
   <si>
-    <t>883306</t>
-  </si>
-  <si>
-    <t>1948207</t>
+    <t>1689157</t>
+  </si>
+  <si>
+    <t>1027507</t>
   </si>
   <si>
     <t>1898725</t>
@@ -1768,16 +1819,28 @@
     <t>2531747</t>
   </si>
   <si>
+    <t>2742872</t>
+  </si>
+  <si>
+    <t>1540202</t>
+  </si>
+  <si>
     <t>P122751</t>
   </si>
   <si>
+    <t>P122912</t>
+  </si>
+  <si>
     <t>P468351</t>
   </si>
   <si>
+    <t>P126301</t>
+  </si>
+  <si>
     <t>P381030</t>
   </si>
   <si>
-    <t>P126301</t>
+    <t>P305114</t>
   </si>
   <si>
     <t>P501008</t>
@@ -1786,346 +1849,352 @@
     <t>P122735</t>
   </si>
   <si>
-    <t>P122912</t>
+    <t>P384996</t>
+  </si>
+  <si>
+    <t>P122748</t>
+  </si>
+  <si>
+    <t>P234967</t>
   </si>
   <si>
     <t>P139000</t>
   </si>
   <si>
-    <t>P384996</t>
+    <t>P122900</t>
+  </si>
+  <si>
+    <t>P384505</t>
+  </si>
+  <si>
+    <t>P122774</t>
   </si>
   <si>
     <t>P122882</t>
   </si>
   <si>
-    <t>P234967</t>
-  </si>
-  <si>
-    <t>P122774</t>
-  </si>
-  <si>
     <t>P461436</t>
   </si>
   <si>
-    <t>P305114</t>
-  </si>
-  <si>
-    <t>P122900</t>
-  </si>
-  <si>
-    <t>P122748</t>
-  </si>
-  <si>
-    <t>P384505</t>
-  </si>
-  <si>
     <t>P206900</t>
   </si>
   <si>
     <t>P393325</t>
   </si>
   <si>
+    <t>P507084</t>
+  </si>
+  <si>
     <t>P122881</t>
   </si>
   <si>
+    <t>P406924</t>
+  </si>
+  <si>
+    <t>P188307</t>
+  </si>
+  <si>
+    <t>P378639</t>
+  </si>
+  <si>
+    <t>P505507</t>
+  </si>
+  <si>
+    <t>P453816</t>
+  </si>
+  <si>
     <t>P122762</t>
   </si>
   <si>
+    <t>P455622</t>
+  </si>
+  <si>
+    <t>P468639</t>
+  </si>
+  <si>
+    <t>P385432</t>
+  </si>
+  <si>
+    <t>P385632</t>
+  </si>
+  <si>
     <t>P457692</t>
   </si>
   <si>
-    <t>P385632</t>
+    <t>P257537</t>
+  </si>
+  <si>
+    <t>P384821</t>
+  </si>
+  <si>
+    <t>P122718</t>
+  </si>
+  <si>
+    <t>P479715</t>
+  </si>
+  <si>
+    <t>P122765</t>
+  </si>
+  <si>
+    <t>P473267</t>
   </si>
   <si>
     <t>P377219</t>
   </si>
   <si>
-    <t>P406924</t>
-  </si>
-  <si>
-    <t>P257537</t>
+    <t>P510763</t>
+  </si>
+  <si>
+    <t>P425860</t>
+  </si>
+  <si>
+    <t>P463613</t>
+  </si>
+  <si>
+    <t>P223704</t>
+  </si>
+  <si>
+    <t>P500718</t>
+  </si>
+  <si>
+    <t>P122668</t>
   </si>
   <si>
     <t>P174502</t>
   </si>
   <si>
+    <t>P122866</t>
+  </si>
+  <si>
+    <t>P381916</t>
+  </si>
+  <si>
+    <t>P425857</t>
+  </si>
+  <si>
     <t>P432241</t>
   </si>
   <si>
-    <t>P378639</t>
-  </si>
-  <si>
-    <t>P507084</t>
-  </si>
-  <si>
-    <t>P385432</t>
-  </si>
-  <si>
-    <t>P505507</t>
-  </si>
-  <si>
-    <t>P468639</t>
-  </si>
-  <si>
-    <t>P122668</t>
-  </si>
-  <si>
-    <t>P122765</t>
-  </si>
-  <si>
-    <t>P122718</t>
-  </si>
-  <si>
-    <t>P384821</t>
-  </si>
-  <si>
-    <t>P122866</t>
-  </si>
-  <si>
-    <t>P188307</t>
-  </si>
-  <si>
-    <t>P500718</t>
-  </si>
-  <si>
-    <t>P479715</t>
-  </si>
-  <si>
-    <t>P453816</t>
-  </si>
-  <si>
-    <t>P425860</t>
-  </si>
-  <si>
-    <t>P510763</t>
-  </si>
-  <si>
-    <t>P425857</t>
-  </si>
-  <si>
-    <t>P223704</t>
+    <t>P508604</t>
+  </si>
+  <si>
+    <t>P385631</t>
+  </si>
+  <si>
+    <t>P201440</t>
+  </si>
+  <si>
+    <t>P479734</t>
+  </si>
+  <si>
+    <t>P188306</t>
+  </si>
+  <si>
+    <t>P481064</t>
+  </si>
+  <si>
+    <t>P122661</t>
+  </si>
+  <si>
+    <t>P468818</t>
+  </si>
+  <si>
+    <t>P374580</t>
   </si>
   <si>
     <t>P377577</t>
   </si>
   <si>
-    <t>P473267</t>
-  </si>
-  <si>
-    <t>P381916</t>
-  </si>
-  <si>
-    <t>P479734</t>
-  </si>
-  <si>
-    <t>P463613</t>
-  </si>
-  <si>
-    <t>P468818</t>
-  </si>
-  <si>
-    <t>P508604</t>
-  </si>
-  <si>
-    <t>P385631</t>
+    <t>P443383</t>
+  </si>
+  <si>
+    <t>P393501</t>
+  </si>
+  <si>
+    <t>P432242</t>
+  </si>
+  <si>
+    <t>P510025</t>
   </si>
   <si>
     <t>P417984</t>
   </si>
   <si>
-    <t>P455622</t>
-  </si>
-  <si>
-    <t>P122661</t>
+    <t>P392472</t>
+  </si>
+  <si>
+    <t>P469451</t>
+  </si>
+  <si>
+    <t>P122651</t>
+  </si>
+  <si>
+    <t>P432243</t>
+  </si>
+  <si>
+    <t>P425858</t>
+  </si>
+  <si>
+    <t>P410101</t>
+  </si>
+  <si>
+    <t>P232327</t>
+  </si>
+  <si>
+    <t>P407040</t>
+  </si>
+  <si>
+    <t>P122876</t>
+  </si>
+  <si>
+    <t>P277401</t>
+  </si>
+  <si>
+    <t>P456991</t>
+  </si>
+  <si>
+    <t>P122727</t>
+  </si>
+  <si>
+    <t>P201439</t>
+  </si>
+  <si>
+    <t>P122761</t>
+  </si>
+  <si>
+    <t>P385254</t>
+  </si>
+  <si>
+    <t>P293010</t>
+  </si>
+  <si>
+    <t>P504674</t>
+  </si>
+  <si>
+    <t>P503737</t>
+  </si>
+  <si>
+    <t>P196542</t>
+  </si>
+  <si>
+    <t>P122807</t>
+  </si>
+  <si>
+    <t>P428662</t>
+  </si>
+  <si>
+    <t>P374841</t>
+  </si>
+  <si>
+    <t>P469452</t>
+  </si>
+  <si>
+    <t>P398717</t>
+  </si>
+  <si>
+    <t>P398713</t>
+  </si>
+  <si>
+    <t>P122806</t>
+  </si>
+  <si>
+    <t>P435207</t>
+  </si>
+  <si>
+    <t>P122809</t>
+  </si>
+  <si>
+    <t>P377576</t>
+  </si>
+  <si>
+    <t>P385256</t>
+  </si>
+  <si>
+    <t>P506372</t>
+  </si>
+  <si>
+    <t>P448561</t>
+  </si>
+  <si>
+    <t>P416824</t>
   </si>
   <si>
     <t>P500771</t>
   </si>
   <si>
-    <t>P196542</t>
-  </si>
-  <si>
-    <t>P232327</t>
-  </si>
-  <si>
-    <t>P469451</t>
-  </si>
-  <si>
-    <t>P481064</t>
-  </si>
-  <si>
-    <t>P456991</t>
-  </si>
-  <si>
-    <t>P374580</t>
-  </si>
-  <si>
-    <t>P122809</t>
-  </si>
-  <si>
-    <t>P122651</t>
-  </si>
-  <si>
-    <t>P188306</t>
-  </si>
-  <si>
-    <t>P201440</t>
-  </si>
-  <si>
-    <t>P122807</t>
-  </si>
-  <si>
-    <t>P432243</t>
-  </si>
-  <si>
-    <t>P392472</t>
-  </si>
-  <si>
-    <t>P510025</t>
-  </si>
-  <si>
-    <t>P410101</t>
-  </si>
-  <si>
-    <t>P503737</t>
-  </si>
-  <si>
-    <t>P122876</t>
-  </si>
-  <si>
-    <t>P398713</t>
-  </si>
-  <si>
-    <t>P443383</t>
-  </si>
-  <si>
-    <t>P504674</t>
-  </si>
-  <si>
-    <t>P277401</t>
-  </si>
-  <si>
-    <t>P201439</t>
-  </si>
-  <si>
-    <t>P448561</t>
-  </si>
-  <si>
-    <t>P374841</t>
-  </si>
-  <si>
-    <t>P407040</t>
-  </si>
-  <si>
-    <t>P377576</t>
-  </si>
-  <si>
-    <t>P293010</t>
-  </si>
-  <si>
-    <t>P416824</t>
-  </si>
-  <si>
-    <t>P398717</t>
-  </si>
-  <si>
-    <t>P393501</t>
-  </si>
-  <si>
-    <t>P385254</t>
+    <t>P411531</t>
+  </si>
+  <si>
+    <t>P244701</t>
   </si>
   <si>
     <t>P409920</t>
   </si>
   <si>
-    <t>P244701</t>
-  </si>
-  <si>
-    <t>P122761</t>
-  </si>
-  <si>
-    <t>P428662</t>
-  </si>
-  <si>
-    <t>P469452</t>
-  </si>
-  <si>
-    <t>P506372</t>
-  </si>
-  <si>
-    <t>P435207</t>
-  </si>
-  <si>
-    <t>P432242</t>
-  </si>
-  <si>
-    <t>P122727</t>
-  </si>
-  <si>
-    <t>P385256</t>
-  </si>
-  <si>
-    <t>P411531</t>
+    <t>P503747</t>
+  </si>
+  <si>
+    <t>P122682</t>
+  </si>
+  <si>
+    <t>P122749</t>
+  </si>
+  <si>
+    <t>P481668</t>
+  </si>
+  <si>
+    <t>P417323</t>
   </si>
   <si>
     <t>P122665</t>
   </si>
   <si>
-    <t>P122749</t>
-  </si>
-  <si>
-    <t>P503747</t>
+    <t>P448565</t>
+  </si>
+  <si>
+    <t>P122654</t>
+  </si>
+  <si>
+    <t>P500790</t>
   </si>
   <si>
     <t>P122770</t>
   </si>
   <si>
-    <t>P481668</t>
-  </si>
-  <si>
-    <t>P122682</t>
-  </si>
-  <si>
-    <t>P417323</t>
+    <t>P257804</t>
   </si>
   <si>
     <t>P122683</t>
   </si>
   <si>
-    <t>P257804</t>
-  </si>
-  <si>
-    <t>P425858</t>
-  </si>
-  <si>
-    <t>P122654</t>
-  </si>
-  <si>
-    <t>P122806</t>
-  </si>
-  <si>
-    <t>P500790</t>
-  </si>
-  <si>
-    <t>P448565</t>
-  </si>
-  <si>
     <t>P400708</t>
   </si>
   <si>
+    <t>P122782</t>
+  </si>
+  <si>
+    <t>P421227</t>
+  </si>
+  <si>
     <t>P422881</t>
   </si>
   <si>
-    <t>P122782</t>
-  </si>
-  <si>
-    <t>P421227</t>
+    <t>P302900</t>
+  </si>
+  <si>
+    <t>P188309</t>
   </si>
   <si>
     <t>P415773</t>
   </si>
   <si>
     <t>P480289</t>
+  </si>
+  <si>
+    <t>P510414</t>
+  </si>
+  <si>
+    <t>P382504</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2527,19 +2596,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="F2" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2547,19 +2616,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2567,19 +2636,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2587,19 +2656,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="F5" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2607,19 +2676,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F6" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2627,19 +2696,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2647,19 +2716,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F8" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2667,19 +2736,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="F9" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2687,19 +2756,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="F10" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2707,19 +2776,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="F11" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2727,19 +2796,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="F12" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2747,19 +2816,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="E13" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2767,19 +2836,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E14" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="F14" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2787,19 +2856,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E15" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="F15" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2807,19 +2876,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E16" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="F16" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2827,19 +2896,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="E17" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2847,19 +2916,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E18" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="F18" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2867,19 +2936,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2887,19 +2956,19 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="E20" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="F20" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2907,19 +2976,19 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E21" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F21" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2927,19 +2996,19 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="E22" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="F22" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2947,19 +3016,19 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E23" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="F23" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2967,19 +3036,19 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E24" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="F24" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2987,19 +3056,19 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E25" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3007,19 +3076,19 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C26" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E26" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="F26" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3027,19 +3096,19 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="E27" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="F27" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3047,19 +3116,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="E28" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F28" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3067,19 +3136,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="E29" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="F29" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3087,19 +3156,19 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E30" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="F30" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3107,19 +3176,19 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="E31" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F31" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3127,19 +3196,19 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E32" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="F32" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3147,19 +3216,19 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="E33" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="F33" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3167,19 +3236,19 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="E34" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="F34" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3187,19 +3256,19 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="F35" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3207,19 +3276,19 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="E36" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="F36" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3227,19 +3296,19 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="E37" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="F37" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3247,19 +3316,19 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E38" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="F38" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3267,19 +3336,19 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="E39" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F39" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3287,19 +3356,19 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E40" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="F40" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3307,19 +3376,19 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E41" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="F41" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3327,19 +3396,19 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E42" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="F42" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3347,19 +3416,19 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="F43" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3367,19 +3436,19 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="F44" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3387,19 +3456,19 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="E45" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="F45" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3407,19 +3476,19 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="E46" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="F46" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3427,19 +3496,19 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="E47" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F47" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3447,19 +3516,19 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E48" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="F48" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3467,19 +3536,19 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E49" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="F49" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3487,19 +3556,19 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E50" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="F50" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3507,19 +3576,19 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="E51" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="F51" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3527,19 +3596,19 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="E52" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="F52" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3547,19 +3616,19 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="E53" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="F53" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3567,19 +3636,19 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="E54" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="F54" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3587,19 +3656,19 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E55" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="F55" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3607,19 +3676,19 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="E56" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="F56" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3627,19 +3696,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="E57" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="F57" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3647,19 +3716,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E58" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="F58" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3667,19 +3736,19 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="E59" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="F59" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3687,19 +3756,19 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="E60" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="F60" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3707,19 +3776,19 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="E61" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="F61" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3727,19 +3796,19 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="E62" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="F62" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3747,19 +3816,19 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="E63" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="F63" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3767,19 +3836,19 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="F64" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3787,19 +3856,19 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="E65" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="F65" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3807,19 +3876,19 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E66" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="F66" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3827,19 +3896,19 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="E67" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="F67" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3847,19 +3916,19 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="E68" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F68" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3867,19 +3936,19 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="E69" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="F69" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3887,19 +3956,19 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E70" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="F70" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3907,19 +3976,19 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="E71" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="F71" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3927,19 +3996,19 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="E72" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="F72" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3947,19 +4016,19 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="E73" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="F73" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3967,19 +4036,19 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
+        <v>316</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="E74" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="F74" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3987,19 +4056,19 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="E75" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F75" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4007,19 +4076,19 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C76" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E76" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="F76" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4027,19 +4096,19 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="E77" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F77" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4047,19 +4116,19 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C78" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="E78" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="F78" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4067,19 +4136,19 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="E79" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="F79" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4087,19 +4156,19 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="E80" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="F80" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4107,19 +4176,19 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C81" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="E81" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="F81" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4127,19 +4196,19 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="E82" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="F82" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4147,19 +4216,19 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="E83" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F83" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4167,19 +4236,19 @@
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="F84" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4187,19 +4256,19 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="E85" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="F85" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4207,19 +4276,19 @@
         <v>90</v>
       </c>
       <c r="B86" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="E86" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F86" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4227,19 +4296,19 @@
         <v>91</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="E87" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="F87" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4247,19 +4316,19 @@
         <v>92</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="E88" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="F88" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4267,19 +4336,19 @@
         <v>93</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="E89" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="F89" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4287,19 +4356,19 @@
         <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="E90" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="F90" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4307,19 +4376,19 @@
         <v>95</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="E91" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F91" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4327,19 +4396,19 @@
         <v>96</v>
       </c>
       <c r="B92" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C92" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="E92" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="F92" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4347,19 +4416,19 @@
         <v>97</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="E93" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="F93" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4367,19 +4436,19 @@
         <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="F94" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4387,19 +4456,19 @@
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C95" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="E95" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="F95" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4407,19 +4476,19 @@
         <v>100</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="E96" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="F96" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4427,19 +4496,19 @@
         <v>101</v>
       </c>
       <c r="B97" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>263</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="E97" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="F97" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4447,19 +4516,19 @@
         <v>102</v>
       </c>
       <c r="B98" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="E98" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="F98" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4467,19 +4536,19 @@
         <v>103</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="E99" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="F99" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4487,19 +4556,19 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="E100" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="F100" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4507,19 +4576,19 @@
         <v>105</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="E101" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="F101" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4527,19 +4596,19 @@
         <v>106</v>
       </c>
       <c r="B102" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E102" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="F102" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4547,19 +4616,19 @@
         <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="E103" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="F103" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4567,19 +4636,19 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E104" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="F104" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4587,19 +4656,19 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C105" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="E105" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="F105" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4607,19 +4676,19 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="E106" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="F106" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4627,19 +4696,19 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C107" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E107" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="F107" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4647,19 +4716,19 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="E108" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="F108" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4667,19 +4736,19 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="E109" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F109" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4687,19 +4756,19 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E110" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="F110" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4707,19 +4776,19 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="E111" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="F111" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4727,19 +4796,19 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C112" t="s">
         <v>336</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="E112" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="F112" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4747,19 +4816,19 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="E113" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="F113" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4767,19 +4836,19 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="E114" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="F114" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4787,19 +4856,19 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="E115" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="F115" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4807,19 +4876,19 @@
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C116" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="E116" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="F116" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4827,19 +4896,19 @@
         <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="E117" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="F117" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4847,19 +4916,19 @@
         <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="E118" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="F118" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4867,19 +4936,19 @@
         <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="E119" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="F119" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4887,19 +4956,19 @@
         <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="E120" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="F120" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4907,19 +4976,99 @@
         <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C121" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="E121" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="F121" t="s">
-        <v>703</v>
+        <v>722</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122" t="s">
+        <v>352</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E122" t="s">
+        <v>599</v>
+      </c>
+      <c r="F122" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" t="s">
+        <v>353</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E123" t="s">
+        <v>600</v>
+      </c>
+      <c r="F123" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+      <c r="C124" t="s">
+        <v>325</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E124" t="s">
+        <v>601</v>
+      </c>
+      <c r="F124" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" t="s">
+        <v>354</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" t="s">
+        <v>602</v>
+      </c>
+      <c r="F125" t="s">
+        <v>726</v>
       </c>
     </row>
   </sheetData>
@@ -5044,6 +5193,10 @@
     <hyperlink ref="D119" r:id="rId118"/>
     <hyperlink ref="D120" r:id="rId119"/>
     <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/downloads/sephora_data.xlsx
+++ b/downloads/sephora_data.xlsx
@@ -37,12 +37,12 @@
     <t>Almost Lipstick</t>
   </si>
   <si>
+    <t>Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
+  </si>
+  <si>
     <t>High Impact Mascara</t>
   </si>
   <si>
-    <t>Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
-  </si>
-  <si>
     <t>Take The Day Off Cleansing Balm Makeup Remover</t>
   </si>
   <si>
@@ -61,22 +61,25 @@
     <t>Cheek Pop Blush</t>
   </si>
   <si>
+    <t>Even Better Makeup Broad Spectrum SPF 15 Foundation</t>
+  </si>
+  <si>
     <t>Stay-Matte Sheer Pressed Powder</t>
   </si>
   <si>
-    <t>Even Better Makeup Broad Spectrum SPF 15 Foundation</t>
+    <t>All About Shadow 8-Pan Palette</t>
+  </si>
+  <si>
+    <t>Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
+    <t>All About Eyes Eye Cream with Vitamin C</t>
   </si>
   <si>
     <t>All About Clean Liquid Facial Soap</t>
   </si>
   <si>
-    <t>Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>All About Shadow 8-Pan Palette</t>
-  </si>
-  <si>
-    <t>All About Eyes Eye Cream with Vitamin C</t>
+    <t>High Impact High-Fi Full Volume Mascara</t>
   </si>
   <si>
     <t>Clarifying Lotion 2</t>
@@ -91,7 +94,7 @@
     <t>Beyond Perfecting Foundation + Concealer</t>
   </si>
   <si>
-    <t>High Impact High-Fi Full Volume Mascara</t>
+    <t>Acne Solutions Clarifying Lotion</t>
   </si>
   <si>
     <t>Clarifying Lotion 3</t>
@@ -100,27 +103,27 @@
     <t>Take The Day Off Micellar Cleansing Towelettes for Face &amp; Eyes Makeup Remover</t>
   </si>
   <si>
-    <t>Acne Solutions Clarifying Lotion</t>
-  </si>
-  <si>
     <t>Moisture Surge CC Cream Hydrating Colour Corrector Broad Spectrum SPF 30</t>
   </si>
   <si>
+    <t>All About Eyes Serum De-Puffing Eye Massage</t>
+  </si>
+  <si>
     <t>Moisture Surge Broad Spectrum Sunscreen SPF 28 Sheer Hydrator Moisturizer</t>
   </si>
   <si>
+    <t>Rinse-Off Foaming Cleanser</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Radical Dark Spot Corrector + Interrupter Serum</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Serum Foundation Broad Spectrum SPF 25</t>
+  </si>
+  <si>
     <t>Mini Take The Day Off Cleansing Balm Makeup Remover</t>
   </si>
   <si>
-    <t>Rinse-Off Foaming Cleanser</t>
-  </si>
-  <si>
-    <t>Even Better Clinical Radical Dark Spot Corrector + Interrupter Serum</t>
-  </si>
-  <si>
-    <t>Even Better Clinical Serum Foundation Broad Spectrum SPF 25</t>
-  </si>
-  <si>
     <t>Acne Solutions Clinical Clearing Gel</t>
   </si>
   <si>
@@ -130,90 +133,99 @@
     <t>Moisture Surge Sheertint Hydrator Broad Spectrum SPF 25 Tinted Moisturizer</t>
   </si>
   <si>
-    <t>All About Eyes Serum De-Puffing Eye Massage</t>
+    <t>Quickliner&amp;trade; For Eyes Eyeliner</t>
+  </si>
+  <si>
+    <t>Exfoliating Face Scrub</t>
   </si>
   <si>
     <t>Take The Day Off Cleansing Oil Makeup Remover</t>
   </si>
   <si>
-    <t>Exfoliating Face Scrub</t>
+    <t>Moisture Surge Intense 72H Lipid-Replenishing Hydrator Moisturizer</t>
   </si>
   <si>
     <t>High Impact&amp;trade; Mascara Mini</t>
   </si>
   <si>
-    <t>Quickliner&amp;trade; For Eyes Eyeliner</t>
-  </si>
-  <si>
     <t>Smart Clinical Repair&amp;trade; Wrinkle Correcting Serum</t>
   </si>
   <si>
+    <t>Moisture Megastars Hydrating Skincare Set</t>
+  </si>
+  <si>
+    <t>All About Eyes Rich Eye Cream with Hyaluronic Acid</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair Wrinkle Correcting Cream</t>
+  </si>
+  <si>
+    <t>Mini Dramatically Different Moisturizing Gel</t>
+  </si>
+  <si>
     <t>High Impact Waterproof Mascara</t>
   </si>
   <si>
-    <t>Moisture Megastars Hydrating Skincare Set</t>
-  </si>
-  <si>
-    <t>Mini Dramatically Different Moisturizing Gel</t>
-  </si>
-  <si>
-    <t>Moisture Surge Intense 72H Lipid-Replenishing Hydrator Moisturizer</t>
-  </si>
-  <si>
     <t>Mini Take The Day Off Makeup Remover For Lids, Lashes &amp; Lips</t>
   </si>
   <si>
-    <t>Smart Clinical Repair Wrinkle Correcting Cream</t>
+    <t>All About Shadow&amp;trade; Single Eye Shadow</t>
+  </si>
+  <si>
+    <t>Acne Solutions All-Over Clearing Treatment Oil-Free</t>
   </si>
   <si>
     <t>Blended Face Powder</t>
   </si>
   <si>
-    <t>All About Eyes Rich Eye Cream with Hyaluronic Acid</t>
+    <t>Mini Dramatically Different Moisturizing Lotion+</t>
+  </si>
+  <si>
+    <t>Great Skin, Great Deal Set for Combination Oily Skin</t>
+  </si>
+  <si>
+    <t>Dramatically Different Hydrating Jelly</t>
+  </si>
+  <si>
+    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
+  </si>
+  <si>
+    <t>Mini Moisture Surge Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
   </si>
   <si>
     <t>Lash Building Primer</t>
   </si>
   <si>
-    <t>All About Shadow&amp;trade; Single Eye Shadow</t>
-  </si>
-  <si>
-    <t>Mini Dramatically Different Moisturizing Lotion+</t>
-  </si>
-  <si>
-    <t>Dramatically Different Hydrating Jelly</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surge Broad Spectrum SPF 28 Sheer Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>Great Skin, Great Deal Set for Combination Oily Skin</t>
-  </si>
-  <si>
     <t>Redness Solutions with Probiotic Technology Daily Relief Cream</t>
   </si>
   <si>
+    <t>High Impact Easy Liquid Eyeliner</t>
+  </si>
+  <si>
+    <t>Mini Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
+  </si>
+  <si>
+    <t>High Impact Extreme Volume Mascara</t>
+  </si>
+  <si>
     <t>Smart Clinical Repair&amp;trade; Wrinkle Correcting Eye Cream</t>
   </si>
   <si>
-    <t>Acne Solutions All-Over Clearing Treatment Oil-Free</t>
-  </si>
-  <si>
-    <t>High Impact Easy Liquid Eyeliner</t>
-  </si>
-  <si>
-    <t>7 Day Face Scrub Cream Rinse-Off Formula</t>
-  </si>
-  <si>
-    <t>Mini Moisture Surge 100H Auto-Replenishing Hydrator Moisturizer</t>
-  </si>
-  <si>
-    <t>High Impact Extreme Volume Mascara</t>
+    <t>Acne Solutions Acne + Line Correcting Serum</t>
+  </si>
+  <si>
+    <t>Take The Day Off Facial Cleansing Mousse</t>
   </si>
   <si>
     <t>Moisture Surge Overnight Face Mask</t>
   </si>
   <si>
+    <t>Mineral Face Sunscreen Broad Spectrum SPF 50</t>
+  </si>
+  <si>
+    <t>Clinique For Men Anti-Age Moisturizer</t>
+  </si>
+  <si>
     <t>Moisture Surge Eye 96-Hour Hydro-Filler Concentrate</t>
   </si>
   <si>
@@ -223,9 +235,6 @@
     <t>Blackhead Solutions 7 Day Deep Pore Cleanse &amp; Face Scrub</t>
   </si>
   <si>
-    <t>Take The Day Off Facial Cleansing Mousse</t>
-  </si>
-  <si>
     <t>Moisture Surge Hydrating Supercharged Concentrate</t>
   </si>
   <si>
@@ -235,24 +244,18 @@
     <t>All About Clean&amp;trade; 2-in-1 Cleansing + Exfoliating Jelly</t>
   </si>
   <si>
+    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
+  </si>
+  <si>
+    <t>Mini Acne Solutions Clinical Clearing Gel</t>
+  </si>
+  <si>
+    <t>Face Sunscreen Broad Spectrum SPF 50</t>
+  </si>
+  <si>
     <t>Clarifying Lotion 1</t>
   </si>
   <si>
-    <t>Blackhead Solutions Self-heating Blackhead Extractor</t>
-  </si>
-  <si>
-    <t>Mini Acne Solutions Clinical Clearing Gel</t>
-  </si>
-  <si>
-    <t>Mineral Face Sunscreen Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Face Sunscreen Broad Spectrum SPF 50</t>
-  </si>
-  <si>
-    <t>Acne Solutions Acne + Line Correcting Serum</t>
-  </si>
-  <si>
     <t>Clarifying Lotion 4</t>
   </si>
   <si>
@@ -262,75 +265,81 @@
     <t>Superdefense City Block Face Sunscreen SPF 50</t>
   </si>
   <si>
+    <t>Redness Solutions Soothing Cleanser</t>
+  </si>
+  <si>
+    <t>Exfoliating Tonic</t>
+  </si>
+  <si>
+    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
+  </si>
+  <si>
+    <t>Clinique For Men&amp;trade; Anti-Age Eye Cream</t>
+  </si>
+  <si>
+    <t>Pop Splash&amp;trade; Lip Gloss</t>
+  </si>
+  <si>
+    <t>Even Better Brightening Moisturizer SPF 20</t>
+  </si>
+  <si>
+    <t>Mini Take The Day Off Charcoal Cleansing Balm Makeup Remover</t>
+  </si>
+  <si>
+    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum Sunscreen SPF 25 Primer</t>
+  </si>
+  <si>
+    <t>True Bronze Pressed Powder Bronzer</t>
+  </si>
+  <si>
+    <t>Even Better Eyes Dark Circle Corrector</t>
+  </si>
+  <si>
+    <t>All About Clean 2-in-1 Charcoal Face Mask + Scrub</t>
+  </si>
+  <si>
     <t>Repairwear Anti-Gravity Eye Cream</t>
   </si>
   <si>
-    <t>Redness Solutions Soothing Cleanser</t>
-  </si>
-  <si>
-    <t>Exfoliating Tonic</t>
-  </si>
-  <si>
-    <t>Clinique For Men Anti-Age Moisturizer</t>
-  </si>
-  <si>
-    <t>Age Defense BB Cream Broad Spectrum SPF 30</t>
-  </si>
-  <si>
-    <t>Even Better Brightening Moisturizer SPF 20</t>
-  </si>
-  <si>
-    <t>Mini Take The Day Off Charcoal Cleansing Balm Makeup Remover</t>
-  </si>
-  <si>
-    <t>City Block&amp;trade; Sheer Oil-Free Daily Face Protector Broad Spectrum Sunscreen SPF 25 Primer</t>
-  </si>
-  <si>
-    <t>True Bronze Pressed Powder Bronzer</t>
-  </si>
-  <si>
-    <t>Pop Splash&amp;trade; Lip Gloss</t>
-  </si>
-  <si>
-    <t>Even Better Eyes Dark Circle Corrector</t>
-  </si>
-  <si>
-    <t>All About Clean 2-in-1 Charcoal Face Mask + Scrub</t>
-  </si>
-  <si>
     <t>Dramatically Different Moisturizing Cream</t>
   </si>
   <si>
+    <t>Broad Spectrum SPF 21 Moisturizer</t>
+  </si>
+  <si>
+    <t>Sparkle Skin Body Exfoliator</t>
+  </si>
+  <si>
+    <t>Clinique For Men Super Energizer&amp;trade; Anti-Fatigue Depuffing Eye Gel</t>
+  </si>
+  <si>
+    <t>Moisturizing Lotion</t>
+  </si>
+  <si>
+    <t>Face Scrub</t>
+  </si>
+  <si>
+    <t>Repairwear Laser Focus Wrinkle Correcting Eye Cream</t>
+  </si>
+  <si>
+    <t>Even Better Clinical Brightening Moisturizer</t>
+  </si>
+  <si>
+    <t>Clinique For Men Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
+  </si>
+  <si>
+    <t>Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
+  </si>
+  <si>
+    <t>Smart Clinical Repair Wrinkle Correcting Rich Cream</t>
+  </si>
+  <si>
     <t>Charcoal Face Wash</t>
   </si>
   <si>
-    <t>Broad Spectrum SPF 21 Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men Super Energizer&amp;trade; Anti-Fatigue Depuffing Eye Gel</t>
-  </si>
-  <si>
-    <t>Moisturizing Lotion</t>
-  </si>
-  <si>
-    <t>Repairwear Laser Focus Wrinkle Correcting Eye Cream</t>
-  </si>
-  <si>
     <t>Oil Control Face Wash</t>
   </si>
   <si>
-    <t>Even Better Clinical Brightening Moisturizer</t>
-  </si>
-  <si>
-    <t>Clinique For Men Maximum Hydrator 72-Hour Auto-Replenishing Hydrator</t>
-  </si>
-  <si>
-    <t>Fresh Pressed Daily Booster with Pure Vitamin C 10%</t>
-  </si>
-  <si>
-    <t>Smart Clinical Repair Wrinkle Correcting Rich Cream</t>
-  </si>
-  <si>
     <t>Clinique Pop Liquid&amp;trade; Matte Lip Colour + Primer Lipstick</t>
   </si>
   <si>
@@ -340,22 +349,19 @@
     <t>Clarifying Lotion 1.0 Twice A Day Exfoliator</t>
   </si>
   <si>
+    <t>Aloe Shave Gel</t>
+  </si>
+  <si>
     <t>Take The Day Off Charcoal Cleansing Balm Makeup Remover</t>
   </si>
   <si>
-    <t>Aloe Shave Gel</t>
-  </si>
-  <si>
-    <t>Sparkle Skin Body Exfoliator</t>
-  </si>
-  <si>
     <t>Clarifying Do-Over Peel</t>
   </si>
   <si>
     <t>Fresh Pressed Renewing Powder Cleanser with Pure Vitamin C</t>
   </si>
   <si>
-    <t>Face Scrub</t>
+    <t>Mini Smart Clinical Repair Wrinkle Correcting Cream</t>
   </si>
   <si>
     <t>Clinique Smart Clinical MD Multi-Dimensional Age Transformer Duo Resculpt + Revolumize</t>
@@ -364,57 +370,51 @@
     <t>Deep Comfort Body Butter</t>
   </si>
   <si>
-    <t>Mini Smart Clinical Repair Wrinkle Correcting Cream</t>
-  </si>
-  <si>
     <t>Post-Shave Soother</t>
   </si>
   <si>
-    <t>Clinique For Men&amp;trade; Anti-Age Eye Cream</t>
-  </si>
-  <si>
     <t>Clinique For Men Oil-Free Moisturizer</t>
   </si>
   <si>
+    <t>Repairwear&amp;trade; Intensive Lip Treatment</t>
+  </si>
+  <si>
     <t>Quickliner&amp;trade; For Lips Intense Lip Liner</t>
   </si>
   <si>
-    <t>Repairwear&amp;trade; Intensive Lip Treatment</t>
+    <t>Even Better Glow&amp;trade; Light Reflecting Makeup Broad Spectrum SPF 15 Foundation</t>
   </si>
   <si>
     <t>Beyond Perfecting Super Concealer Camouflage + 24-Hour Wear</t>
   </si>
   <si>
-    <t>Even Better Glow&amp;trade; Light Reflecting Makeup Broad Spectrum SPF 15 Foundation</t>
+    <t>Acne Solutions Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Pep-Start Daily UV Protector Face Sunscreen SPF 50</t>
+  </si>
+  <si>
+    <t>Mini Acne Solutions&amp;trade; Cleansing Foam</t>
+  </si>
+  <si>
+    <t>Mini High Impact High-Fi Full Volume Mascara</t>
   </si>
   <si>
     <t>Turnaround Accelerated Renewal Serum</t>
   </si>
   <si>
-    <t>Acne Solutions Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Pep-Start Daily UV Protector Face Sunscreen SPF 50</t>
-  </si>
-  <si>
-    <t>Mini Acne Solutions&amp;trade; Cleansing Foam</t>
-  </si>
-  <si>
-    <t>Mini High Impact High-Fi Full Volume Mascara</t>
-  </si>
-  <si>
     <t>Superprimer Face Primer - Universal Face Primer</t>
   </si>
   <si>
     <t>4.395</t>
   </si>
   <si>
+    <t>4.2409</t>
+  </si>
+  <si>
     <t>4.2842</t>
   </si>
   <si>
-    <t>4.2409</t>
-  </si>
-  <si>
     <t>4.5132</t>
   </si>
   <si>
@@ -433,22 +433,25 @@
     <t>4.5036</t>
   </si>
   <si>
+    <t>4.1852</t>
+  </si>
+  <si>
     <t>4.3343</t>
   </si>
   <si>
-    <t>4.1852</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.4302</t>
+  </si>
+  <si>
+    <t>4.07</t>
   </si>
   <si>
     <t>4.3684</t>
   </si>
   <si>
-    <t>4.4302</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.07</t>
+    <t>4.3712</t>
   </si>
   <si>
     <t>4.3667</t>
@@ -463,7 +466,7 @@
     <t>3.7504</t>
   </si>
   <si>
-    <t>4.3712</t>
+    <t>4.3959</t>
   </si>
   <si>
     <t>4.3104</t>
@@ -472,12 +475,12 @@
     <t>3.8922</t>
   </si>
   <si>
-    <t>4.3959</t>
-  </si>
-  <si>
     <t>3.762</t>
   </si>
   <si>
+    <t>3.7662</t>
+  </si>
+  <si>
     <t>4.3557</t>
   </si>
   <si>
@@ -499,87 +502,96 @@
     <t>3.7283</t>
   </si>
   <si>
-    <t>3.7662</t>
+    <t>4.2566</t>
+  </si>
+  <si>
+    <t>4.6092</t>
   </si>
   <si>
     <t>4.3122</t>
   </si>
   <si>
-    <t>4.6092</t>
+    <t>3.6</t>
   </si>
   <si>
     <t>4.037</t>
   </si>
   <si>
-    <t>4.2566</t>
-  </si>
-  <si>
     <t>4.1957</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>4.1451</t>
+  </si>
+  <si>
+    <t>4.1785</t>
+  </si>
+  <si>
+    <t>4.4301</t>
+  </si>
+  <si>
     <t>3.9487</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>4.4301</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
     <t>4.0588</t>
   </si>
   <si>
-    <t>4.1785</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>4.0194</t>
   </si>
   <si>
     <t>4.3532</t>
   </si>
   <si>
-    <t>4.1451</t>
+    <t>4.3222</t>
+  </si>
+  <si>
+    <t>3.8825</t>
+  </si>
+  <si>
+    <t>4.5311</t>
+  </si>
+  <si>
+    <t>4.6667</t>
   </si>
   <si>
     <t>4.2806</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>3.8825</t>
-  </si>
-  <si>
-    <t>4.6667</t>
-  </si>
-  <si>
-    <t>4.3222</t>
-  </si>
-  <si>
     <t>3.9983</t>
   </si>
   <si>
+    <t>3.7907</t>
+  </si>
+  <si>
+    <t>4.1408</t>
+  </si>
+  <si>
+    <t>3.6217</t>
+  </si>
+  <si>
     <t>4.2396</t>
   </si>
   <si>
-    <t>4.0194</t>
-  </si>
-  <si>
-    <t>3.7907</t>
-  </si>
-  <si>
-    <t>4.5311</t>
-  </si>
-  <si>
-    <t>4.1408</t>
-  </si>
-  <si>
-    <t>3.6217</t>
+    <t>4.1111</t>
+  </si>
+  <si>
+    <t>4.4826</t>
   </si>
   <si>
     <t>4.4752</t>
   </si>
   <si>
+    <t>3.413</t>
+  </si>
+  <si>
+    <t>4.5455</t>
+  </si>
+  <si>
     <t>3.3014</t>
   </si>
   <si>
@@ -589,9 +601,6 @@
     <t>4.1235</t>
   </si>
   <si>
-    <t>4.4826</t>
-  </si>
-  <si>
     <t>4.0275</t>
   </si>
   <si>
@@ -601,21 +610,15 @@
     <t>4.6061</t>
   </si>
   <si>
+    <t>3.0995</t>
+  </si>
+  <si>
+    <t>3.9449</t>
+  </si>
+  <si>
     <t>4.5198</t>
   </si>
   <si>
-    <t>3.0995</t>
-  </si>
-  <si>
-    <t>3.413</t>
-  </si>
-  <si>
-    <t>3.9449</t>
-  </si>
-  <si>
-    <t>4.1111</t>
-  </si>
-  <si>
     <t>4.3593</t>
   </si>
   <si>
@@ -625,75 +628,81 @@
     <t>3.68</t>
   </si>
   <si>
+    <t>4.1696</t>
+  </si>
+  <si>
+    <t>4.5417</t>
+  </si>
+  <si>
+    <t>3.8585</t>
+  </si>
+  <si>
+    <t>4.3333</t>
+  </si>
+  <si>
+    <t>4.3701</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.1706</t>
+  </si>
+  <si>
+    <t>4.1164</t>
+  </si>
+  <si>
+    <t>4.5257</t>
+  </si>
+  <si>
+    <t>3.2428</t>
+  </si>
+  <si>
+    <t>4.0909</t>
+  </si>
+  <si>
     <t>4.1585</t>
   </si>
   <si>
-    <t>4.1696</t>
-  </si>
-  <si>
-    <t>4.5417</t>
-  </si>
-  <si>
-    <t>4.5455</t>
-  </si>
-  <si>
-    <t>3.8585</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.1706</t>
-  </si>
-  <si>
-    <t>4.1164</t>
-  </si>
-  <si>
-    <t>4.5257</t>
-  </si>
-  <si>
-    <t>4.3701</t>
-  </si>
-  <si>
-    <t>3.2428</t>
-  </si>
-  <si>
-    <t>4.0909</t>
-  </si>
-  <si>
     <t>4.3939</t>
   </si>
   <si>
+    <t>4.3529</t>
+  </si>
+  <si>
+    <t>4.3562</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>4.475</t>
+  </si>
+  <si>
+    <t>4.7353</t>
+  </si>
+  <si>
+    <t>3.8947</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>4.4615</t>
+  </si>
+  <si>
+    <t>3.9438</t>
+  </si>
+  <si>
+    <t>4.3158</t>
+  </si>
+  <si>
     <t>4.7407</t>
   </si>
   <si>
-    <t>4.3529</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.475</t>
-  </si>
-  <si>
-    <t>3.8947</t>
-  </si>
-  <si>
     <t>4.1667</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>4.4615</t>
-  </si>
-  <si>
-    <t>3.9438</t>
-  </si>
-  <si>
-    <t>4.3158</t>
-  </si>
-  <si>
     <t>3.6774</t>
   </si>
   <si>
@@ -706,16 +715,13 @@
     <t>4.725</t>
   </si>
   <si>
-    <t>4.3562</t>
-  </si>
-  <si>
     <t>3.2857</t>
   </si>
   <si>
     <t>4.381</t>
   </si>
   <si>
-    <t>4.7353</t>
+    <t>4.2778</t>
   </si>
   <si>
     <t>2.8462</t>
@@ -724,57 +730,51 @@
     <t>4.698</t>
   </si>
   <si>
-    <t>4.2778</t>
-  </si>
-  <si>
     <t>4.6458</t>
   </si>
   <si>
-    <t>4.3333</t>
-  </si>
-  <si>
     <t>4.2083</t>
   </si>
   <si>
+    <t>4.2754</t>
+  </si>
+  <si>
     <t>4.25</t>
   </si>
   <si>
-    <t>4.2754</t>
+    <t>4.3028</t>
   </si>
   <si>
     <t>4.0438</t>
   </si>
   <si>
-    <t>4.3028</t>
+    <t>4.1693</t>
+  </si>
+  <si>
+    <t>4.2513</t>
+  </si>
+  <si>
+    <t>4.125</t>
+  </si>
+  <si>
+    <t>3.25</t>
   </si>
   <si>
     <t>4.3237</t>
   </si>
   <si>
-    <t>4.1693</t>
-  </si>
-  <si>
-    <t>4.2513</t>
-  </si>
-  <si>
-    <t>4.125</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
     <t>4.2674</t>
   </si>
   <si>
     <t>4521</t>
   </si>
   <si>
+    <t>1868</t>
+  </si>
+  <si>
     <t>2808</t>
   </si>
   <si>
-    <t>1868</t>
-  </si>
-  <si>
     <t>4511</t>
   </si>
   <si>
@@ -793,22 +793,25 @@
     <t>1104</t>
   </si>
   <si>
+    <t>2635</t>
+  </si>
+  <si>
     <t>1379</t>
   </si>
   <si>
-    <t>2635</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>4042</t>
+  </si>
+  <si>
+    <t>1656</t>
   </si>
   <si>
     <t>2237</t>
   </si>
   <si>
-    <t>4042</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1656</t>
+    <t>299</t>
   </si>
   <si>
     <t>1399</t>
@@ -823,7 +826,7 @@
     <t>2608</t>
   </si>
   <si>
-    <t>299</t>
+    <t>1018</t>
   </si>
   <si>
     <t>931</t>
@@ -832,12 +835,12 @@
     <t>677</t>
   </si>
   <si>
-    <t>1018</t>
-  </si>
-  <si>
     <t>811</t>
   </si>
   <si>
+    <t>911</t>
+  </si>
+  <si>
     <t>357</t>
   </si>
   <si>
@@ -859,93 +862,96 @@
     <t>92</t>
   </si>
   <si>
-    <t>911</t>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1213</t>
   </si>
   <si>
     <t>583</t>
   </si>
   <si>
-    <t>1213</t>
+    <t>115</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>1543</t>
-  </si>
-  <si>
     <t>1676</t>
   </si>
   <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>4041</t>
+  </si>
+  <si>
     <t>429</t>
   </si>
   <si>
-    <t>4041</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>51</t>
   </si>
   <si>
-    <t>1905</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>720</t>
   </si>
   <si>
     <t>637</t>
   </si>
   <si>
-    <t>1647</t>
+    <t>270</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>784</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
     <t>592</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>497</t>
+    <t>117</t>
+  </si>
+  <si>
+    <t>489</t>
   </si>
   <si>
     <t>484</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>146</t>
   </si>
   <si>
     <t>106</t>
   </si>
   <si>
-    <t>489</t>
-  </si>
-  <si>
     <t>255</t>
   </si>
   <si>
@@ -955,18 +961,15 @@
     <t>33</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
     <t>202</t>
   </si>
   <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>231</t>
   </si>
   <si>
@@ -976,39 +979,36 @@
     <t>100</t>
   </si>
   <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>763</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>481</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
     <t>284</t>
   </si>
   <si>
-    <t>289</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>763</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>481</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>383</t>
-  </si>
-  <si>
     <t>165</t>
   </si>
   <si>
@@ -1021,21 +1021,24 @@
     <t>40</t>
   </si>
   <si>
+    <t>170</t>
+  </si>
+  <si>
     <t>152</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>62</t>
   </si>
   <si>
@@ -1048,48 +1051,45 @@
     <t>42</t>
   </si>
   <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>245</t>
   </si>
   <si>
+    <t>276</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>276</t>
+    <t>142</t>
   </si>
   <si>
     <t>251</t>
   </si>
   <si>
-    <t>142</t>
+    <t>1057</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>139</t>
   </si>
   <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>172</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/almost-lipstick-P122751?skuId=70680</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468351?skuId=2421725</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/high-impact-mascara-P122912?skuId=711267</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468351?skuId=2421725</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/take-the-day-off-cleansing-balm-P126301?skuId=886267</t>
   </si>
   <si>
@@ -1108,22 +1108,25 @@
     <t>https://www.sephora.com/product/cheek-pop-P384996?skuId=1674910</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/stay-matte-sheer-pressed-powder-P122748?skuId=51573</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/even-better-makeup-spf-15-P234967?skuId=2083871</t>
+    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/liquid-facial-soap-P139000?skuId=899070</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-P122900?skuId=789727</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-shadow-8-pan-palette-P384505?skuId=2702744</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/all-about-eyes-P122774?skuId=126581</t>
+    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clarifying-lotion-2-P122882?skuId=1295708</t>
@@ -1138,7 +1141,7 @@
     <t>https://www.sephora.com/product/beyond-perfecting-foundation-concealer-P393325?skuId=2166833</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/high-impact-high-fi-tm-full-volume-mascara-P507084?skuId=2677672</t>
+    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clarifying-lotion-3-P122881?skuId=1295716</t>
@@ -1147,27 +1150,27 @@
     <t>https://www.sephora.com/product/take-day-off-micellar-cleansing-towelettes-for-face-eyes-P406924?skuId=1802354</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/acne-solutions-clarifying-lotion-P188307?skuId=1027473</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/moisture-surge-cc-cream-hydrating-colour-corrector-broad-spectrum-spf-30-P378639?skuId=1509512</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-moisture-surge-tm-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P505507?skuId=2672970</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/rinse-off-foaming-cleanser-P122762?skuId=47860</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-take-day-off-cleansing-balm-mini-P453816?skuId=2039477</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/rinse-off-foaming-cleanser-P122762?skuId=47860</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-radical-dark-spot-corrector-interrupter-P455622?skuId=2313401</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-serum-foundation-broad-spectrum-spf-25-P468639?skuId=2422566</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-P385432?skuId=1592831</t>
   </si>
   <si>
@@ -1177,90 +1180,99 @@
     <t>https://www.sephora.com/product/clinique-moisture-surge-sheertint-hydrator-broad-spectrum-spf-25-P457692?skuId=2313708</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/all-about-eyes-serum-de-puffing-eye-massage-P257537?skuId=1234897</t>
+    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/take-the-day-off-cleansing-oil-P384821?skuId=1583426</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/exfoliating-scrub-P122718?skuId=579490</t>
+    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-intense-72h-lipid-replenishing-hydrator-P463613?skuId=2368694</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-high-impact-trade-mascara-mini-P479715?skuId=2554525</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/quickliner-for-eyes-P122765?skuId=557413</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-serum-P473267?skuId=2480705</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/all-about-eyes-rich-P174502?skuId=971473</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-cream-P500718?skuId=2608404</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-mini-P425860?skuId=789735</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/high-impact-waterproof-mascara-P377219?skuId=1487180</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-moisture-megastars-hydrating-skincare-set-P510763?skuId=2766384</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-gel-mini-P425860?skuId=789735</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-moisture-surge-trade-intense-72h-lipid-replenishing-hydrator-P463613?skuId=2368694</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/take-the-day-off-to-go-P223704?skuId=1123116</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-cream-P500718?skuId=2608404</t>
+    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-all-over-clearing-treatment-oil-free-P188306?skuId=1027465</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/blended-face-powder-brush-P122668?skuId=51532</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/all-about-eyes-rich-P174502?skuId=971473</t>
+    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-mini-P425857?skuId=1682343</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-combination-oily-skin-P385631?skuId=1599422</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/dramatically-different-hydrating-jelly-P432241?skuId=2240331</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/lash-building-primer-P122866?skuId=741967</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/all-about-shadow-single-P381916?skuId=2717015</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-moisturizing-lotion-mini-P425857?skuId=1682343</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/dramatically-different-hydrating-jelly-P432241?skuId=2240331</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/mini-moisture-surge-broad-spectrum-spf-28-sheer-hydrator-moisturizer-P508604?skuId=2694875</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/great-skin-great-deal-set-for-combination-oily-skin-P385631?skuId=1599422</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/redness-solutions-daily-relief-cream-P201440?skuId=1066729</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468818?skuId=2421683</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-smart-clinical-repair-trade-wrinkle-correcting-eye-cream-P479734?skuId=2531697</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/acne-solutions-all-over-clearing-treatment-oil-free-P188306?skuId=1027465</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-high-impact-tm-easy-liquid-liner-P481064?skuId=2515245</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/7-day-scrub-cream-rinse-off-formula-P122661?skuId=47936</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-moisture-surge-trade-100-hour-auto-replenishing-hydrator-P468818?skuId=2421683</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/high-impact-extreme-volume-mascara-P374580?skuId=1440486</t>
+    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/moisture-surge-overnight-mask-P377577?skuId=1484641</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-50-mineral-sunscreen-fluid-for-face-P410101?skuId=1809383</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/moisture-surge-eye-96-hour-hydro-filler-concentrate-P443383?skuId=2171940</t>
   </si>
   <si>
@@ -1270,9 +1282,6 @@
     <t>https://www.sephora.com/product/blackhead-solutions-7-day-deep-pore-cleanse-scrub-P432242?skuId=2083780</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-take-day-off-tm-facial-cleansing-mousse-P510025?skuId=2734507</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/moisture-surge-hydrating-supercharged-concentrate-P417984?skuId=1898790</t>
   </si>
   <si>
@@ -1282,24 +1291,18 @@
     <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-cleansing-exfoliating-jelly-P469451?skuId=2421766</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-mini-P425858?skuId=1592856</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clarifying-lotion-1-P122651?skuId=1295690</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/blackhead-solutions-self-heating-blackhead-extractor-P432243?skuId=2083798</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-clinical-clearing-gel-mini-P425858?skuId=1592856</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-50-mineral-sunscreen-fluid-for-face-P410101?skuId=1809383</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-50-sunscreen-face-cream-P232327?skuId=1151711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/acne-solutions-acne-line-correcting-serum-P407040?skuId=1802321</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/clarifying-lotion-4-P122876?skuId=1295724</t>
   </si>
   <si>
@@ -1309,75 +1312,81 @@
     <t>https://www.sephora.com/product/clinique-superdefense-city-block-spf-50-daily-energy-face-protector-P456991?skuId=2313757</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/exfoliating-tonic-P122761?skuId=50765</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/marimekko-clinique-pop-splash-lip-gloss-P428662?skuId=2023471</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-take-day-off-charcoal-cleansing-balm-makeup-remover-P503737?skuId=2641876</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/repairwear-anti-gravity-eye-lift-cream-P122727?skuId=502443</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/redness-solutions-soothing-cleanser-P201439?skuId=1066711</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/exfoliating-tonic-P122761?skuId=50765</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/anti-age-moisturizer-P385254?skuId=1596220</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/age-defense-bb-cream-broad-spectrum-spf-30-P293010?skuId=1417302</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-even-better-brightening-moisturizer-spf-20-P504674?skuId=2664365</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-take-day-off-charcoal-cleansing-balm-makeup-remover-P503737?skuId=2641876</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/city-block-sheer-oil-free-daily-face-protector-spf-25-P196542?skuId=999565</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/true-bronze-pressed-powder-bronzer-P122807?skuId=847517</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/marimekko-clinique-pop-splash-lip-gloss-P428662?skuId=2023471</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/even-better-eyes-dark-circle-corrector-P374841?skuId=1438787</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-all-about-clean-trade-2-in-1-charcoal-mask-scrub-P469452?skuId=2421774</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/dramatically-different-moisturizing-cream-P398717?skuId=1717016</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/moisturizing-lotion-P122809?skuId=1580794</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/face-scrub-P122665?skuId=50997</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-rich-cream-P500771?skuId=2608396</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/charcoal-face-wash-P398713?skuId=1734649</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/broad-spectrum-spf-21-moisturizer-P122806?skuId=882506</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-for-men-super-energizer-anti-fatigue-depuffing-eye-gel-P435207?skuId=2111904</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/moisturizing-lotion-P122809?skuId=1580794</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/repairwear-laser-focus-wrinkle-correcting-eye-cream-P377576?skuId=1484625</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/oil-control-face-wash-P385256?skuId=1580778</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/clinique-even-better-clinical-brightening-moisturizer-P506372?skuId=2672988</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-for-men-maximum-hydrator-72-hour-auto-replenishing-hydrator-P448561?skuId=2240349</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/fresh-pressed-daily-booster-with-pure-vitamin-c-10-P416824?skuId=1898774</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/smart-clinical-repair-wrinkle-correcting-rich-cream-P500771?skuId=2608396</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/pop-liquid-matte-lip-colour-P411531?skuId=1860220</t>
   </si>
   <si>
@@ -1387,22 +1396,19 @@
     <t>https://www.sephora.com/product/clarifying-lotion-1-0-twice-day-exfoliator-P409920?skuId=1829514</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/clinique-take-day-off-charcoal-cleansing-balm-makeup-remover-P503747?skuId=2641884</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/aloe-shave-gel-P122682?skuId=1580810</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/sparkle-skin-body-exfoliator-P122749?skuId=410712</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/clinique-clarifying-do-over-peel-P481668?skuId=2531739</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/fresh-pressed-renewing-powder-cleanser-P417323?skuId=1898782</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/face-scrub-P122665?skuId=50997</t>
+    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/clinique-smart-clinical-md-multi-dimensional-age-transformer-duo-resculpt-revolumize-P448565?skuId=2240323</t>
@@ -1411,57 +1417,51 @@
     <t>https://www.sephora.com/product/deep-comfort-body-butter-P122654?skuId=637025</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/mini-smart-clinical-repair-wrinkle-correcting-cream-P500790?skuId=2608503</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/post-shave-soother-P122770?skuId=51052</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/anti-age-eye-cream-P257804?skuId=1202464</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/oil-control-mattifying-moisturizer-P122683?skuId=1580802</t>
   </si>
   <si>
+    <t>https://www.sephora.com/product/repairwear-intensive-lip-treatment-P122782?skuId=883306</t>
+  </si>
+  <si>
     <t>https://www.sephora.com/product/quickliner-for-lips-intense-P400708?skuId=1719079</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/repairwear-intensive-lip-treatment-P122782?skuId=883306</t>
+    <t>https://www.sephora.com/product/even-better-trade-glow-light-reflecting-makeup-broad-spectrum-spf-15-P422881?skuId=1953587</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/beyond-perfecting-super-concealer-P421227?skuId=1948207</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/even-better-trade-glow-light-reflecting-makeup-broad-spectrum-spf-15-P422881?skuId=1953587</t>
+    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/pep-start-daily-uv-protector-broad-spectrum-spf-50-P415773?skuId=1898725</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-acne-solutions-trade-cleansing-foam-P480289?skuId=2531747</t>
+  </si>
+  <si>
+    <t>https://www.sephora.com/product/clinique-mini-high-impact-high-fi-full-volume-mascara-P510414?skuId=2742872</t>
   </si>
   <si>
     <t>https://www.sephora.com/product/turnaround-revitalizing-serum-P302900?skuId=1689157</t>
   </si>
   <si>
-    <t>https://www.sephora.com/product/acne-solutions-cleansing-foam-P188309?skuId=1027507</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/pep-start-daily-uv-protector-broad-spectrum-spf-50-P415773?skuId=1898725</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-acne-solutions-trade-cleansing-foam-P480289?skuId=2531747</t>
-  </si>
-  <si>
-    <t>https://www.sephora.com/product/clinique-mini-high-impact-high-fi-full-volume-mascara-P510414?skuId=2742872</t>
-  </si>
-  <si>
     <t>https://www.sephora.com/product/superprimer-face-primer-universal-face-primer-P382504?skuId=1540202</t>
   </si>
   <si>
     <t>70680</t>
   </si>
   <si>
+    <t>2421725</t>
+  </si>
+  <si>
     <t>711267</t>
   </si>
   <si>
-    <t>2421725</t>
-  </si>
-  <si>
     <t>886267</t>
   </si>
   <si>
@@ -1480,22 +1480,25 @@
     <t>1674910</t>
   </si>
   <si>
+    <t>2083871</t>
+  </si>
+  <si>
     <t>51573</t>
   </si>
   <si>
-    <t>2083871</t>
+    <t>2702744</t>
+  </si>
+  <si>
+    <t>789727</t>
+  </si>
+  <si>
+    <t>126581</t>
   </si>
   <si>
     <t>899070</t>
   </si>
   <si>
-    <t>789727</t>
-  </si>
-  <si>
-    <t>2702744</t>
-  </si>
-  <si>
-    <t>126581</t>
+    <t>2677672</t>
   </si>
   <si>
     <t>1295708</t>
@@ -1510,7 +1513,7 @@
     <t>2166833</t>
   </si>
   <si>
-    <t>2677672</t>
+    <t>1027473</t>
   </si>
   <si>
     <t>1295716</t>
@@ -1519,27 +1522,27 @@
     <t>1802354</t>
   </si>
   <si>
-    <t>1027473</t>
-  </si>
-  <si>
     <t>1509512</t>
   </si>
   <si>
+    <t>1234897</t>
+  </si>
+  <si>
     <t>2672970</t>
   </si>
   <si>
+    <t>47860</t>
+  </si>
+  <si>
+    <t>2313401</t>
+  </si>
+  <si>
+    <t>2422566</t>
+  </si>
+  <si>
     <t>2039477</t>
   </si>
   <si>
-    <t>47860</t>
-  </si>
-  <si>
-    <t>2313401</t>
-  </si>
-  <si>
-    <t>2422566</t>
-  </si>
-  <si>
     <t>1592831</t>
   </si>
   <si>
@@ -1549,90 +1552,99 @@
     <t>2313708</t>
   </si>
   <si>
-    <t>1234897</t>
+    <t>557413</t>
+  </si>
+  <si>
+    <t>579490</t>
   </si>
   <si>
     <t>1583426</t>
   </si>
   <si>
-    <t>579490</t>
+    <t>2368694</t>
   </si>
   <si>
     <t>2554525</t>
   </si>
   <si>
-    <t>557413</t>
-  </si>
-  <si>
     <t>2480705</t>
   </si>
   <si>
+    <t>2766384</t>
+  </si>
+  <si>
+    <t>971473</t>
+  </si>
+  <si>
+    <t>2608404</t>
+  </si>
+  <si>
+    <t>789735</t>
+  </si>
+  <si>
     <t>1487180</t>
   </si>
   <si>
-    <t>2766384</t>
-  </si>
-  <si>
-    <t>789735</t>
-  </si>
-  <si>
-    <t>2368694</t>
-  </si>
-  <si>
     <t>1123116</t>
   </si>
   <si>
-    <t>2608404</t>
+    <t>2717015</t>
+  </si>
+  <si>
+    <t>1027465</t>
   </si>
   <si>
     <t>51532</t>
   </si>
   <si>
-    <t>971473</t>
+    <t>1682343</t>
+  </si>
+  <si>
+    <t>1599422</t>
+  </si>
+  <si>
+    <t>2240331</t>
+  </si>
+  <si>
+    <t>47936</t>
+  </si>
+  <si>
+    <t>2694875</t>
   </si>
   <si>
     <t>741967</t>
   </si>
   <si>
-    <t>2717015</t>
-  </si>
-  <si>
-    <t>1682343</t>
-  </si>
-  <si>
-    <t>2240331</t>
-  </si>
-  <si>
-    <t>2694875</t>
-  </si>
-  <si>
-    <t>1599422</t>
-  </si>
-  <si>
     <t>1066729</t>
   </si>
   <si>
+    <t>2515245</t>
+  </si>
+  <si>
+    <t>2421683</t>
+  </si>
+  <si>
+    <t>1440486</t>
+  </si>
+  <si>
     <t>2531697</t>
   </si>
   <si>
-    <t>1027465</t>
-  </si>
-  <si>
-    <t>2515245</t>
-  </si>
-  <si>
-    <t>47936</t>
-  </si>
-  <si>
-    <t>2421683</t>
-  </si>
-  <si>
-    <t>1440486</t>
+    <t>1802321</t>
+  </si>
+  <si>
+    <t>2734507</t>
   </si>
   <si>
     <t>1484641</t>
   </si>
   <si>
+    <t>1809383</t>
+  </si>
+  <si>
+    <t>1596220</t>
+  </si>
+  <si>
     <t>2171940</t>
   </si>
   <si>
@@ -1642,9 +1654,6 @@
     <t>2083780</t>
   </si>
   <si>
-    <t>2734507</t>
-  </si>
-  <si>
     <t>1898790</t>
   </si>
   <si>
@@ -1654,24 +1663,18 @@
     <t>2421766</t>
   </si>
   <si>
+    <t>2083798</t>
+  </si>
+  <si>
+    <t>1592856</t>
+  </si>
+  <si>
+    <t>1151711</t>
+  </si>
+  <si>
     <t>1295690</t>
   </si>
   <si>
-    <t>2083798</t>
-  </si>
-  <si>
-    <t>1592856</t>
-  </si>
-  <si>
-    <t>1809383</t>
-  </si>
-  <si>
-    <t>1151711</t>
-  </si>
-  <si>
-    <t>1802321</t>
-  </si>
-  <si>
     <t>1295724</t>
   </si>
   <si>
@@ -1681,75 +1684,81 @@
     <t>2313757</t>
   </si>
   <si>
+    <t>1066711</t>
+  </si>
+  <si>
+    <t>50765</t>
+  </si>
+  <si>
+    <t>1417302</t>
+  </si>
+  <si>
+    <t>1202464</t>
+  </si>
+  <si>
+    <t>2023471</t>
+  </si>
+  <si>
+    <t>2664365</t>
+  </si>
+  <si>
+    <t>2641876</t>
+  </si>
+  <si>
+    <t>999565</t>
+  </si>
+  <si>
+    <t>847517</t>
+  </si>
+  <si>
+    <t>1438787</t>
+  </si>
+  <si>
+    <t>2421774</t>
+  </si>
+  <si>
     <t>502443</t>
   </si>
   <si>
-    <t>1066711</t>
-  </si>
-  <si>
-    <t>50765</t>
-  </si>
-  <si>
-    <t>1596220</t>
-  </si>
-  <si>
-    <t>1417302</t>
-  </si>
-  <si>
-    <t>2664365</t>
-  </si>
-  <si>
-    <t>2641876</t>
-  </si>
-  <si>
-    <t>999565</t>
-  </si>
-  <si>
-    <t>847517</t>
-  </si>
-  <si>
-    <t>2023471</t>
-  </si>
-  <si>
-    <t>1438787</t>
-  </si>
-  <si>
-    <t>2421774</t>
-  </si>
-  <si>
     <t>1717016</t>
   </si>
   <si>
+    <t>882506</t>
+  </si>
+  <si>
+    <t>410712</t>
+  </si>
+  <si>
+    <t>2111904</t>
+  </si>
+  <si>
+    <t>1580794</t>
+  </si>
+  <si>
+    <t>50997</t>
+  </si>
+  <si>
+    <t>1484625</t>
+  </si>
+  <si>
+    <t>2672988</t>
+  </si>
+  <si>
+    <t>2240349</t>
+  </si>
+  <si>
+    <t>1898774</t>
+  </si>
+  <si>
+    <t>2608396</t>
+  </si>
+  <si>
     <t>1734649</t>
   </si>
   <si>
-    <t>882506</t>
-  </si>
-  <si>
-    <t>2111904</t>
-  </si>
-  <si>
-    <t>1580794</t>
-  </si>
-  <si>
-    <t>1484625</t>
-  </si>
-  <si>
     <t>1580778</t>
   </si>
   <si>
-    <t>2672988</t>
-  </si>
-  <si>
-    <t>2240349</t>
-  </si>
-  <si>
-    <t>1898774</t>
-  </si>
-  <si>
-    <t>2608396</t>
-  </si>
-  <si>
     <t>1860220</t>
   </si>
   <si>
@@ -1759,22 +1768,19 @@
     <t>1829514</t>
   </si>
   <si>
+    <t>1580810</t>
+  </si>
+  <si>
     <t>2641884</t>
   </si>
   <si>
-    <t>1580810</t>
-  </si>
-  <si>
-    <t>410712</t>
-  </si>
-  <si>
     <t>2531739</t>
   </si>
   <si>
     <t>1898782</t>
   </si>
   <si>
-    <t>50997</t>
+    <t>2608503</t>
   </si>
   <si>
     <t>2240323</t>
@@ -1783,57 +1789,51 @@
     <t>637025</t>
   </si>
   <si>
-    <t>2608503</t>
-  </si>
-  <si>
     <t>51052</t>
   </si>
   <si>
-    <t>1202464</t>
-  </si>
-  <si>
     <t>1580802</t>
   </si>
   <si>
+    <t>883306</t>
+  </si>
+  <si>
     <t>1719079</t>
   </si>
   <si>
-    <t>883306</t>
+    <t>1953587</t>
   </si>
   <si>
     <t>1948207</t>
   </si>
   <si>
-    <t>1953587</t>
+    <t>1027507</t>
+  </si>
+  <si>
+    <t>1898725</t>
+  </si>
+  <si>
+    <t>2531747</t>
+  </si>
+  <si>
+    <t>2742872</t>
   </si>
   <si>
     <t>1689157</t>
   </si>
   <si>
-    <t>1027507</t>
-  </si>
-  <si>
-    <t>1898725</t>
-  </si>
-  <si>
-    <t>2531747</t>
-  </si>
-  <si>
-    <t>2742872</t>
-  </si>
-  <si>
     <t>1540202</t>
   </si>
   <si>
     <t>P122751</t>
   </si>
   <si>
+    <t>P468351</t>
+  </si>
+  <si>
     <t>P122912</t>
   </si>
   <si>
-    <t>P468351</t>
-  </si>
-  <si>
     <t>P126301</t>
   </si>
   <si>
@@ -1852,22 +1852,25 @@
     <t>P384996</t>
   </si>
   <si>
+    <t>P234967</t>
+  </si>
+  <si>
     <t>P122748</t>
   </si>
   <si>
-    <t>P234967</t>
+    <t>P384505</t>
+  </si>
+  <si>
+    <t>P122900</t>
+  </si>
+  <si>
+    <t>P122774</t>
   </si>
   <si>
     <t>P139000</t>
   </si>
   <si>
-    <t>P122900</t>
-  </si>
-  <si>
-    <t>P384505</t>
-  </si>
-  <si>
-    <t>P122774</t>
+    <t>P507084</t>
   </si>
   <si>
     <t>P122882</t>
@@ -1882,7 +1885,7 @@
     <t>P393325</t>
   </si>
   <si>
-    <t>P507084</t>
+    <t>P188307</t>
   </si>
   <si>
     <t>P122881</t>
@@ -1891,27 +1894,27 @@
     <t>P406924</t>
   </si>
   <si>
-    <t>P188307</t>
-  </si>
-  <si>
     <t>P378639</t>
   </si>
   <si>
+    <t>P257537</t>
+  </si>
+  <si>
     <t>P505507</t>
   </si>
   <si>
+    <t>P122762</t>
+  </si>
+  <si>
+    <t>P455622</t>
+  </si>
+  <si>
+    <t>P468639</t>
+  </si>
+  <si>
     <t>P453816</t>
   </si>
   <si>
-    <t>P122762</t>
-  </si>
-  <si>
-    <t>P455622</t>
-  </si>
-  <si>
-    <t>P468639</t>
-  </si>
-  <si>
     <t>P385432</t>
   </si>
   <si>
@@ -1921,90 +1924,99 @@
     <t>P457692</t>
   </si>
   <si>
-    <t>P257537</t>
+    <t>P122765</t>
+  </si>
+  <si>
+    <t>P122718</t>
   </si>
   <si>
     <t>P384821</t>
   </si>
   <si>
-    <t>P122718</t>
+    <t>P463613</t>
   </si>
   <si>
     <t>P479715</t>
   </si>
   <si>
-    <t>P122765</t>
-  </si>
-  <si>
     <t>P473267</t>
   </si>
   <si>
+    <t>P510763</t>
+  </si>
+  <si>
+    <t>P174502</t>
+  </si>
+  <si>
+    <t>P500718</t>
+  </si>
+  <si>
+    <t>P425860</t>
+  </si>
+  <si>
     <t>P377219</t>
   </si>
   <si>
-    <t>P510763</t>
-  </si>
-  <si>
-    <t>P425860</t>
-  </si>
-  <si>
-    <t>P463613</t>
-  </si>
-  <si>
     <t>P223704</t>
   </si>
   <si>
-    <t>P500718</t>
+    <t>P381916</t>
+  </si>
+  <si>
+    <t>P188306</t>
   </si>
   <si>
     <t>P122668</t>
   </si>
   <si>
-    <t>P174502</t>
+    <t>P425857</t>
+  </si>
+  <si>
+    <t>P385631</t>
+  </si>
+  <si>
+    <t>P432241</t>
+  </si>
+  <si>
+    <t>P122661</t>
+  </si>
+  <si>
+    <t>P508604</t>
   </si>
   <si>
     <t>P122866</t>
   </si>
   <si>
-    <t>P381916</t>
-  </si>
-  <si>
-    <t>P425857</t>
-  </si>
-  <si>
-    <t>P432241</t>
-  </si>
-  <si>
-    <t>P508604</t>
-  </si>
-  <si>
-    <t>P385631</t>
-  </si>
-  <si>
     <t>P201440</t>
   </si>
   <si>
+    <t>P481064</t>
+  </si>
+  <si>
+    <t>P468818</t>
+  </si>
+  <si>
+    <t>P374580</t>
+  </si>
+  <si>
     <t>P479734</t>
   </si>
   <si>
-    <t>P188306</t>
-  </si>
-  <si>
-    <t>P481064</t>
-  </si>
-  <si>
-    <t>P122661</t>
-  </si>
-  <si>
-    <t>P468818</t>
-  </si>
-  <si>
-    <t>P374580</t>
+    <t>P407040</t>
+  </si>
+  <si>
+    <t>P510025</t>
   </si>
   <si>
     <t>P377577</t>
   </si>
   <si>
+    <t>P410101</t>
+  </si>
+  <si>
+    <t>P385254</t>
+  </si>
+  <si>
     <t>P443383</t>
   </si>
   <si>
@@ -2014,9 +2026,6 @@
     <t>P432242</t>
   </si>
   <si>
-    <t>P510025</t>
-  </si>
-  <si>
     <t>P417984</t>
   </si>
   <si>
@@ -2026,24 +2035,18 @@
     <t>P469451</t>
   </si>
   <si>
+    <t>P432243</t>
+  </si>
+  <si>
+    <t>P425858</t>
+  </si>
+  <si>
+    <t>P232327</t>
+  </si>
+  <si>
     <t>P122651</t>
   </si>
   <si>
-    <t>P432243</t>
-  </si>
-  <si>
-    <t>P425858</t>
-  </si>
-  <si>
-    <t>P410101</t>
-  </si>
-  <si>
-    <t>P232327</t>
-  </si>
-  <si>
-    <t>P407040</t>
-  </si>
-  <si>
     <t>P122876</t>
   </si>
   <si>
@@ -2053,75 +2056,81 @@
     <t>P456991</t>
   </si>
   <si>
+    <t>P201439</t>
+  </si>
+  <si>
+    <t>P122761</t>
+  </si>
+  <si>
+    <t>P293010</t>
+  </si>
+  <si>
+    <t>P257804</t>
+  </si>
+  <si>
+    <t>P428662</t>
+  </si>
+  <si>
+    <t>P504674</t>
+  </si>
+  <si>
+    <t>P503737</t>
+  </si>
+  <si>
+    <t>P196542</t>
+  </si>
+  <si>
+    <t>P122807</t>
+  </si>
+  <si>
+    <t>P374841</t>
+  </si>
+  <si>
+    <t>P469452</t>
+  </si>
+  <si>
     <t>P122727</t>
   </si>
   <si>
-    <t>P201439</t>
-  </si>
-  <si>
-    <t>P122761</t>
-  </si>
-  <si>
-    <t>P385254</t>
-  </si>
-  <si>
-    <t>P293010</t>
-  </si>
-  <si>
-    <t>P504674</t>
-  </si>
-  <si>
-    <t>P503737</t>
-  </si>
-  <si>
-    <t>P196542</t>
-  </si>
-  <si>
-    <t>P122807</t>
-  </si>
-  <si>
-    <t>P428662</t>
-  </si>
-  <si>
-    <t>P374841</t>
-  </si>
-  <si>
-    <t>P469452</t>
-  </si>
-  <si>
     <t>P398717</t>
   </si>
   <si>
+    <t>P122806</t>
+  </si>
+  <si>
+    <t>P122749</t>
+  </si>
+  <si>
+    <t>P435207</t>
+  </si>
+  <si>
+    <t>P122809</t>
+  </si>
+  <si>
+    <t>P122665</t>
+  </si>
+  <si>
+    <t>P377576</t>
+  </si>
+  <si>
+    <t>P506372</t>
+  </si>
+  <si>
+    <t>P448561</t>
+  </si>
+  <si>
+    <t>P416824</t>
+  </si>
+  <si>
+    <t>P500771</t>
+  </si>
+  <si>
     <t>P398713</t>
   </si>
   <si>
-    <t>P122806</t>
-  </si>
-  <si>
-    <t>P435207</t>
-  </si>
-  <si>
-    <t>P122809</t>
-  </si>
-  <si>
-    <t>P377576</t>
-  </si>
-  <si>
     <t>P385256</t>
   </si>
   <si>
-    <t>P506372</t>
-  </si>
-  <si>
-    <t>P448561</t>
-  </si>
-  <si>
-    <t>P416824</t>
-  </si>
-  <si>
-    <t>P500771</t>
-  </si>
-  <si>
     <t>P411531</t>
   </si>
   <si>
@@ -2131,22 +2140,19 @@
     <t>P409920</t>
   </si>
   <si>
+    <t>P122682</t>
+  </si>
+  <si>
     <t>P503747</t>
   </si>
   <si>
-    <t>P122682</t>
-  </si>
-  <si>
-    <t>P122749</t>
-  </si>
-  <si>
     <t>P481668</t>
   </si>
   <si>
     <t>P417323</t>
   </si>
   <si>
-    <t>P122665</t>
+    <t>P500790</t>
   </si>
   <si>
     <t>P448565</t>
@@ -2155,43 +2161,37 @@
     <t>P122654</t>
   </si>
   <si>
-    <t>P500790</t>
-  </si>
-  <si>
     <t>P122770</t>
   </si>
   <si>
-    <t>P257804</t>
-  </si>
-  <si>
     <t>P122683</t>
   </si>
   <si>
+    <t>P122782</t>
+  </si>
+  <si>
     <t>P400708</t>
   </si>
   <si>
-    <t>P122782</t>
+    <t>P422881</t>
   </si>
   <si>
     <t>P421227</t>
   </si>
   <si>
-    <t>P422881</t>
+    <t>P188309</t>
+  </si>
+  <si>
+    <t>P415773</t>
+  </si>
+  <si>
+    <t>P480289</t>
+  </si>
+  <si>
+    <t>P510414</t>
   </si>
   <si>
     <t>P302900</t>
-  </si>
-  <si>
-    <t>P188309</t>
-  </si>
-  <si>
-    <t>P415773</t>
-  </si>
-  <si>
-    <t>P480289</t>
-  </si>
-  <si>
-    <t>P510414</t>
   </si>
   <si>
     <t>P382504</t>
@@ -3096,10 +3096,10 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>380</v>
@@ -3116,10 +3116,10 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>381</v>
@@ -3136,10 +3136,10 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>382</v>
@@ -3156,10 +3156,10 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>383</v>
@@ -3176,10 +3176,10 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="C31" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>384</v>
@@ -3379,7 +3379,7 @@
         <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>394</v>
@@ -3839,7 +3839,7 @@
         <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>417</v>
@@ -3919,7 +3919,7 @@
         <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>421</v>
@@ -3939,7 +3939,7 @@
         <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>422</v>
@@ -3959,7 +3959,7 @@
         <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>423</v>
@@ -3976,10 +3976,10 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>424</v>
@@ -3996,10 +3996,10 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>425</v>
@@ -4016,10 +4016,10 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="C73" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>426</v>
@@ -4199,7 +4199,7 @@
         <v>207</v>
       </c>
       <c r="C82" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>435</v>
@@ -4219,7 +4219,7 @@
         <v>208</v>
       </c>
       <c r="C83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>436</v>
@@ -4239,7 +4239,7 @@
         <v>209</v>
       </c>
       <c r="C84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>437</v>
@@ -4259,7 +4259,7 @@
         <v>210</v>
       </c>
       <c r="C85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>438</v>
@@ -4279,7 +4279,7 @@
         <v>211</v>
       </c>
       <c r="C86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>439</v>
@@ -4299,7 +4299,7 @@
         <v>212</v>
       </c>
       <c r="C87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>440</v>
@@ -4319,7 +4319,7 @@
         <v>213</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>441</v>
@@ -4339,7 +4339,7 @@
         <v>214</v>
       </c>
       <c r="C89" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>442</v>
@@ -4359,7 +4359,7 @@
         <v>215</v>
       </c>
       <c r="C90" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>443</v>
@@ -4379,7 +4379,7 @@
         <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>444</v>
@@ -4419,7 +4419,7 @@
         <v>218</v>
       </c>
       <c r="C93" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>446</v>
@@ -4439,7 +4439,7 @@
         <v>219</v>
       </c>
       <c r="C94" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>447</v>
@@ -4459,7 +4459,7 @@
         <v>220</v>
       </c>
       <c r="C95" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>448</v>
@@ -4479,7 +4479,7 @@
         <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>449</v>
@@ -4499,7 +4499,7 @@
         <v>222</v>
       </c>
       <c r="C97" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>450</v>
@@ -4519,7 +4519,7 @@
         <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>451</v>
@@ -4539,7 +4539,7 @@
         <v>224</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>452</v>
@@ -4559,7 +4559,7 @@
         <v>225</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>453</v>
@@ -4579,7 +4579,7 @@
         <v>226</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>454</v>
@@ -4599,7 +4599,7 @@
         <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>455</v>
@@ -4619,7 +4619,7 @@
         <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>456</v>
@@ -4636,10 +4636,10 @@
         <v>108</v>
       </c>
       <c r="B104" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="C104" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>457</v>
@@ -4656,10 +4656,10 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>458</v>
@@ -4676,10 +4676,10 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C106" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>459</v>
@@ -4696,10 +4696,10 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>460</v>
@@ -4716,10 +4716,10 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>461</v>
@@ -4739,7 +4739,7 @@
         <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>462</v>
@@ -4759,7 +4759,7 @@
         <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>463</v>
@@ -4779,7 +4779,7 @@
         <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>464</v>
@@ -4799,7 +4799,7 @@
         <v>236</v>
       </c>
       <c r="C112" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>465</v>
@@ -4819,7 +4819,7 @@
         <v>237</v>
       </c>
       <c r="C113" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>466</v>
@@ -4839,7 +4839,7 @@
         <v>238</v>
       </c>
       <c r="C114" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>467</v>
@@ -5019,7 +5019,7 @@
         <v>247</v>
       </c>
       <c r="C123" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>476</v>
@@ -5039,7 +5039,7 @@
         <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>477</v>
